--- a/data_dictionaries/en/Belvo_Data_Dictionary_en.xlsx
+++ b/data_dictionaries/en/Belvo_Data_Dictionary_en.xlsx
@@ -562,9 +562,7 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">The name of the institution, as designated by Belvo.
-Please see our &lt;a href="https://developers.belvo.com/docs/institution" target="_blank"&gt;Institutions&lt;/a&gt; DevPortal article for a detailed list of institution names.
-</t>
+          <t>The name of the institution, as designated by Belvo.</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
@@ -12265,9 +12263,7 @@
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">The name of the institution, as designated by Belvo.
-Please see our &lt;a href="https://developers.belvo.com/docs/institution" target="_blank"&gt;Institutions&lt;/a&gt; DevPortal article for a detailed list of institution names.
-</t>
+          <t>The name of the institution, as designated by Belvo.</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
@@ -30751,7 +30747,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I99"/>
+  <dimension ref="A1:I123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31174,33 +31170,29 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>sender_id</t>
+          <t>tax_details</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>The fiscal ID of the invoice sender</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>AAA111111AA11</t>
-        </is>
-      </c>
+          <t>General information about the taxes of the invoice.</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr"/>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>object</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr"/>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr"/>
@@ -31209,33 +31201,37 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>sender_name</t>
+          <t>tax_details.total_tax_retained</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>The name of the invoice sender.</t>
+          <t>Total amount of retained taxes.</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>ACME CORP</t>
+          <t>194.27</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr"/>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr"/>
@@ -31244,10 +31240,512 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
+          <t>tax_details.total_tax_transferred</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>Total amount of transferred taxes.</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>150.4</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr"/>
+      <c r="I13" s="2" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>tax_details.retained_taxes</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>List of retained taxes.</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr"/>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr"/>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr"/>
+      <c r="I14" s="2" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>tax_details.retained_taxes[].tax</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>The type of retained tax (for example, ISR, IVA or IEPS).</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>ISR</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr"/>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr"/>
+      <c r="I15" s="2" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>tax_details.retained_taxes[].tax_percentage</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>The percentage of tax retained.</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr"/>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr"/>
+      <c r="I16" s="2" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>tax_details.retained_taxes[].pre_tax_amount</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>The amount before tax.</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr"/>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr"/>
+      <c r="I17" s="2" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>tax_details.retained_taxes[].tax_amount</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>The amount of retained tax.</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr"/>
+      <c r="I18" s="2" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>tax_details.transferred_taxes</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>List of transferred taxes.</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr"/>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr"/>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr"/>
+      <c r="I19" s="2" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>tax_details.transferred_taxes[].tax</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>The type of transferred tax (for example, ISR, IVA or IEPS).</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>IVA</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr"/>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr"/>
+      <c r="I20" s="2" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>tax_details.transferred_taxes[].tax_percentage</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>The percentage of tax transferred.</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr"/>
+      <c r="I21" s="2" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>tax_details.transferred_taxes[].pre_tax_amount</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>The amount before tax.</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>940</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr"/>
+      <c r="I22" s="2" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>tax_details.transferred_taxes[].tax_amount</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>The amount of transferred tax.</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>150.4</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr"/>
+      <c r="I23" s="2" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>sender_id</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>The fiscal ID of the invoice sender</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>AAA111111AA11</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr"/>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr"/>
+      <c r="I24" s="2" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>sender_fiscal_regime</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>The tax regime of the sender, as defined by the legal entity in the country.</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>601</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr"/>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr"/>
+      <c r="I25" s="2" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>sender_name</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>The name of the invoice sender.</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>ACME CORP</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr"/>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr"/>
+      <c r="I26" s="2" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
           <t>sender_tax_fraud_status</t>
         </is>
       </c>
-      <c r="B13" s="2" t="inlineStr">
+      <c r="B27" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Indicates whether or not the sender is on SAT's tax fraud list for having submitted incorrect data, having outstanding payments, or having conducted business that is in violation of the fiscal institution's regulations.&lt;br&gt;&lt;br&gt;
 SAT updates the tax fraud list every three months. &lt;br&gt;&lt;br&gt;
@@ -31271,107 +31769,177 @@
 </t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
+      <c r="C27" s="2" t="inlineStr">
         <is>
           <t>NO_TAX_FRAUD_STATUS</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr"/>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr"/>
-      <c r="I13" s="2" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="inlineStr">
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr"/>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr"/>
+      <c r="I27" s="2" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
         <is>
           <t>receiver_id</t>
         </is>
       </c>
-      <c r="B14" s="2" t="inlineStr">
+      <c r="B28" s="2" t="inlineStr">
         <is>
           <t>The fiscal ID of the invoice receiver.</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
+      <c r="C28" s="2" t="inlineStr">
         <is>
           <t>BBB222222BB22</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr"/>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr"/>
-      <c r="I14" s="2" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="inlineStr">
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr"/>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr"/>
+      <c r="I28" s="2" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>receiver_postal_code</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>The postal code of the receiver.</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>11560</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr"/>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr"/>
+      <c r="I29" s="2" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>receiver_fiscal_regime</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>The tax regime of the receiver, as defined by the legal entity in the country.</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>601</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr"/>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr"/>
+      <c r="I30" s="2" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
         <is>
           <t>receiver_name</t>
         </is>
       </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="B31" s="2" t="inlineStr">
         <is>
           <t>The name of the invoice receiver.</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C31" s="2" t="inlineStr">
         <is>
           <t>BELVO CORP</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr"/>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr"/>
-      <c r="I15" s="2" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="inlineStr">
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr"/>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr"/>
+      <c r="I31" s="2" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
         <is>
           <t>receiver_tax_fraud_status</t>
         </is>
       </c>
-      <c r="B16" s="2" t="inlineStr">
+      <c r="B32" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Indicates whether or not the receiver is on SAT's tax fraud list for having submitted incorrect data, having outstanding payments, or having conducted business that is in violation of the fiscal institution's regulations.&lt;br&gt;&lt;br&gt;
 SAT updates the tax fraud list every three months. &lt;br&gt;&lt;br&gt;
@@ -31395,929 +31963,345 @@
 </t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
+      <c r="C32" s="2" t="inlineStr">
         <is>
           <t>NO_TAX_FRAUD_STATUS</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr"/>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr"/>
-      <c r="I16" s="2" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="inlineStr">
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr"/>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr"/>
+      <c r="I32" s="2" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
         <is>
           <t>cancelation_status</t>
         </is>
       </c>
-      <c r="B17" s="2" t="inlineStr">
+      <c r="B33" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">If the invoice is cancelled, this field indicates the status of the cancellation.
 </t>
         </is>
       </c>
-      <c r="C17" s="2" t="inlineStr"/>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr"/>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr"/>
-      <c r="I17" s="2" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="inlineStr">
+      <c r="C33" s="2" t="inlineStr"/>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr"/>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr"/>
+      <c r="I33" s="2" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
         <is>
           <t>cancelation_update_date</t>
         </is>
       </c>
-      <c r="B18" s="2" t="inlineStr">
+      <c r="B34" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">The date of the invoice cancelation, in `YYYY-MM-DD` format.
 </t>
         </is>
       </c>
-      <c r="C18" s="2" t="inlineStr">
+      <c r="C34" s="2" t="inlineStr">
         <is>
           <t>2019-12-02</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr"/>
-      <c r="I18" s="2" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="inlineStr">
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr"/>
+      <c r="I34" s="2" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
         <is>
           <t>certification_date</t>
         </is>
       </c>
-      <c r="B19" s="2" t="inlineStr">
+      <c r="B35" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">The date of the fiscal certification, in `YYYY-MM-DD` format.
 </t>
         </is>
       </c>
-      <c r="C19" s="2" t="inlineStr">
+      <c r="C35" s="2" t="inlineStr">
         <is>
           <t>2019-12-01</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr"/>
-      <c r="I19" s="2" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="inlineStr">
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr"/>
+      <c r="I35" s="2" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
         <is>
           <t>certification_authority</t>
         </is>
       </c>
-      <c r="B20" s="2" t="inlineStr">
+      <c r="B36" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">The fiscal ID of the certification provider.
 </t>
         </is>
       </c>
-      <c r="C20" s="2" t="inlineStr">
+      <c r="C36" s="2" t="inlineStr">
         <is>
           <t>CCC333333CC33</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr"/>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr"/>
-      <c r="I20" s="2" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="inlineStr">
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr"/>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr"/>
+      <c r="I36" s="2" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="inlineStr">
         <is>
           <t>payment_type</t>
         </is>
       </c>
-      <c r="B21" s="2" t="inlineStr">
+      <c r="B37" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">The payment type code used for this invoice, as defined by the country legal entity.
 - 🇲🇽 Mexico &lt;a href="https://developers.belvo.com/docs/sat-catalogs#payment-type" target="_blank"&gt;SAT catalog reference article&lt;/a&gt;
 </t>
         </is>
       </c>
-      <c r="C21" s="2" t="inlineStr">
+      <c r="C37" s="2" t="inlineStr">
         <is>
           <t>99</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr"/>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr"/>
-      <c r="I21" s="2" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="inlineStr">
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr"/>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr"/>
+      <c r="I37" s="2" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
         <is>
           <t>payment_type_description</t>
         </is>
       </c>
-      <c r="B22" s="2" t="inlineStr">
+      <c r="B38" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">*This field has been deprecated. For more information regarding Belvo and deprecation, see our Deprecated fields explanation.*
 </t>
         </is>
       </c>
-      <c r="C22" s="2" t="inlineStr"/>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr"/>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr"/>
-      <c r="I22" s="2" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="inlineStr">
+      <c r="C38" s="2" t="inlineStr"/>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr"/>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr"/>
+      <c r="I38" s="2" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="inlineStr">
         <is>
           <t>payment_method</t>
         </is>
       </c>
-      <c r="B23" s="2" t="inlineStr">
+      <c r="B39" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">The payment method code used for this invoice, as defined by the legal entity of the country.
 - 🇲🇽 Mexico &lt;a href="https://developers.belvo.com/docs/sat-catalogs#payment-method" target="_blank"&gt;SAT catalog reference article&lt;/a&gt;. For Mexico, we return `PUE`, `PPD`, or `null`.
 </t>
         </is>
       </c>
-      <c r="C23" s="2" t="inlineStr">
+      <c r="C39" s="2" t="inlineStr">
         <is>
           <t>PUE</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr"/>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr"/>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
         <is>
           <t>PUE, PPD, None</t>
         </is>
       </c>
-      <c r="I23" s="2" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="inlineStr">
+      <c r="I39" s="2" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
         <is>
           <t>payment_method_description</t>
         </is>
       </c>
-      <c r="B24" s="2" t="inlineStr">
+      <c r="B40" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">*This field has been deprecated. For more information regarding Belvo and deprecation, see our Deprecated fields explanation.*
 *The description of the payment method used for this invoice.*
 </t>
         </is>
       </c>
-      <c r="C24" s="2" t="inlineStr"/>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr"/>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr"/>
-      <c r="I24" s="2" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="inlineStr">
+      <c r="C40" s="2" t="inlineStr"/>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr"/>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr"/>
+      <c r="I40" s="2" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="inlineStr">
         <is>
           <t>usage</t>
         </is>
       </c>
-      <c r="B25" s="2" t="inlineStr">
+      <c r="B41" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">The invoice's usage code, as defined by the legal entity of the country. 
 - 🇲🇽 Mexico &lt;a href="https://developers.belvo.com/docs/sat-catalogs#usage" target="_blank"&gt;SAT catalog reference article&lt;/a&gt;
 </t>
         </is>
       </c>
-      <c r="C25" s="2" t="inlineStr">
+      <c r="C41" s="2" t="inlineStr">
         <is>
           <t>P01</t>
         </is>
       </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr"/>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr"/>
-      <c r="I25" s="2" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="inlineStr">
-        <is>
-          <t>version</t>
-        </is>
-      </c>
-      <c r="B26" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The CFDI version of the invoice.
-</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>3.3</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr"/>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr"/>
-      <c r="I26" s="2" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="inlineStr">
-        <is>
-          <t>place_of_issue</t>
-        </is>
-      </c>
-      <c r="B27" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The postcode of where the invoice was issued.
-</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>01165</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr"/>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr"/>
-      <c r="I27" s="2" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="inlineStr">
-        <is>
-          <t>invoice_details</t>
-        </is>
-      </c>
-      <c r="B28" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A list of descriptions for each item (purchased product or service provided) in the invoice.
-</t>
-        </is>
-      </c>
-      <c r="C28" s="2" t="inlineStr"/>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>array</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr"/>
-      <c r="F28" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G28" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H28" s="2" t="inlineStr"/>
-      <c r="I28" s="2" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="inlineStr">
-        <is>
-          <t>invoice_details[].description</t>
-        </is>
-      </c>
-      <c r="B29" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The description of the invoice item (an invoice can have one or more items).
-</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>December 2019 accounting fees</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr"/>
-      <c r="F29" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G29" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="inlineStr"/>
-      <c r="I29" s="2" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="inlineStr">
-        <is>
-          <t>invoice_details[].product_identification</t>
-        </is>
-      </c>
-      <c r="B30" s="2" t="inlineStr">
-        <is>
-          <t>The identification code of the product or the service, as defined by the legal entity in the country.\n- \U0001F1F2\U0001F1FD &lt;a href="http://200.57.3.89/Pys/catPyS.aspx" target="_blank"&gt;Mexico&lt;/a&gt;.</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>84101600</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr"/>
-      <c r="F30" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G30" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="inlineStr"/>
-      <c r="I30" s="2" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="inlineStr">
-        <is>
-          <t>invoice_details[].quantity</t>
-        </is>
-      </c>
-      <c r="B31" s="2" t="inlineStr">
-        <is>
-          <t>The quantity of this invoice item.</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>float</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G31" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H31" s="2" t="inlineStr"/>
-      <c r="I31" s="2" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="inlineStr">
-        <is>
-          <t>invoice_details[].unit_code</t>
-        </is>
-      </c>
-      <c r="B32" s="2" t="inlineStr">
-        <is>
-          <t>The unit of measure, as defined by the legal entity in the country. \n- \U0001F1F2\U0001F1FD Mexico &lt;a href="https://developers.belvo.com/docs/sat-catalogs#unit-code" target="_blank"&gt;SAT catalog reference&lt;/a&gt;.</t>
-        </is>
-      </c>
-      <c r="C32" s="2" t="inlineStr">
-        <is>
-          <t>E48</t>
-        </is>
-      </c>
-      <c r="D32" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E32" s="2" t="inlineStr"/>
-      <c r="F32" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G32" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H32" s="2" t="inlineStr"/>
-      <c r="I32" s="2" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="inlineStr">
-        <is>
-          <t>invoice_details[].unit_description</t>
-        </is>
-      </c>
-      <c r="B33" s="2" t="inlineStr">
-        <is>
-          <t>The description of the item, as defined by the legal entity in the country.\n- \U0001F1F2\U0001F1FD Mexico &lt;a href="https://developers.belvo.com/docs/sat-catalogs#unit-code" target="_blank"&gt;SAT catalog reference&lt;/a&gt;.</t>
-        </is>
-      </c>
-      <c r="C33" s="2" t="inlineStr">
-        <is>
-          <t>Unidad de servicio</t>
-        </is>
-      </c>
-      <c r="D33" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E33" s="2" t="inlineStr"/>
-      <c r="F33" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G33" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H33" s="2" t="inlineStr"/>
-      <c r="I33" s="2" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="inlineStr">
-        <is>
-          <t>invoice_details[].unit_amount</t>
-        </is>
-      </c>
-      <c r="B34" s="2" t="inlineStr">
-        <is>
-          <t>The price of one a singular item.</t>
-        </is>
-      </c>
-      <c r="C34" s="2" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="D34" s="2" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="E34" s="2" t="inlineStr">
-        <is>
-          <t>float</t>
-        </is>
-      </c>
-      <c r="F34" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G34" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H34" s="2" t="inlineStr"/>
-      <c r="I34" s="2" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="inlineStr">
-        <is>
-          <t>invoice_details[].tax_type</t>
-        </is>
-      </c>
-      <c r="B35" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The item's tax type.
-</t>
-        </is>
-      </c>
-      <c r="C35" s="2" t="inlineStr"/>
-      <c r="D35" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E35" s="2" t="inlineStr"/>
-      <c r="F35" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G35" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H35" s="2" t="inlineStr"/>
-      <c r="I35" s="2" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="inlineStr">
-        <is>
-          <t>invoice_details[].pre_tax_amount</t>
-        </is>
-      </c>
-      <c r="B36" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The total price for this item before tax is applied (`quantity` x `unit_amount`).
-</t>
-        </is>
-      </c>
-      <c r="C36" s="2" t="inlineStr">
-        <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="D36" s="2" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="E36" s="2" t="inlineStr">
-        <is>
-          <t>float</t>
-        </is>
-      </c>
-      <c r="F36" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G36" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H36" s="2" t="inlineStr"/>
-      <c r="I36" s="2" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="inlineStr">
-        <is>
-          <t>invoice_details[].tax_percentage</t>
-        </is>
-      </c>
-      <c r="B37" s="2" t="inlineStr">
-        <is>
-          <t>The tax percentage to apply.</t>
-        </is>
-      </c>
-      <c r="C37" s="2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="D37" s="2" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="E37" s="2" t="inlineStr">
-        <is>
-          <t>float</t>
-        </is>
-      </c>
-      <c r="F37" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G37" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H37" s="2" t="inlineStr"/>
-      <c r="I37" s="2" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="inlineStr">
-        <is>
-          <t>invoice_details[].tax_amount</t>
-        </is>
-      </c>
-      <c r="B38" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The amount of tax for this invoice item (`pre_tax_amount` x `tax_percentage`).
-</t>
-        </is>
-      </c>
-      <c r="C38" s="2" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="D38" s="2" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="E38" s="2" t="inlineStr">
-        <is>
-          <t>float</t>
-        </is>
-      </c>
-      <c r="F38" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G38" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H38" s="2" t="inlineStr"/>
-      <c r="I38" s="2" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="inlineStr">
-        <is>
-          <t>invoice_details[].total_amount</t>
-        </is>
-      </c>
-      <c r="B39" s="2" t="inlineStr">
-        <is>
-          <t>The total price for this invoice item (`pre_tax_amount` + `tax_amount`).</t>
-        </is>
-      </c>
-      <c r="C39" s="2" t="inlineStr">
-        <is>
-          <t>464</t>
-        </is>
-      </c>
-      <c r="D39" s="2" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="E39" s="2" t="inlineStr">
-        <is>
-          <t>float</t>
-        </is>
-      </c>
-      <c r="F39" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G39" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H39" s="2" t="inlineStr"/>
-      <c r="I39" s="2" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="inlineStr">
-        <is>
-          <t>invoice_details[].retained_taxes</t>
-        </is>
-      </c>
-      <c r="B40" s="2" t="inlineStr">
-        <is>
-          <t>The retained tax on the invoice item.</t>
-        </is>
-      </c>
-      <c r="C40" s="2" t="inlineStr"/>
-      <c r="D40" s="2" t="inlineStr">
-        <is>
-          <t>array</t>
-        </is>
-      </c>
-      <c r="E40" s="2" t="inlineStr"/>
-      <c r="F40" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G40" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H40" s="2" t="inlineStr"/>
-      <c r="I40" s="2" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="inlineStr">
-        <is>
-          <t>invoice_details[].retained_taxes[].collected_at</t>
-        </is>
-      </c>
-      <c r="B41" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The ISO-8601 timestamp when the data point was collected.
-</t>
-        </is>
-      </c>
-      <c r="C41" s="2" t="inlineStr">
-        <is>
-          <t>2022-02-09T08:45:50.406032Z</t>
-        </is>
-      </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
           <t>string</t>
         </is>
       </c>
-      <c r="E41" s="2" t="inlineStr">
-        <is>
-          <t>date-time</t>
-        </is>
-      </c>
+      <c r="E41" s="2" t="inlineStr"/>
       <c r="F41" s="2" t="inlineStr">
         <is>
           <t>No</t>
@@ -32325,7 +32309,7 @@
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr"/>
@@ -32334,16 +32318,20 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>invoice_details[].retained_taxes[].tax_type</t>
+          <t>version</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">The item's tax type.
-</t>
-        </is>
-      </c>
-      <c r="C42" s="2" t="inlineStr"/>
+          <t xml:space="preserve">The CFDI version of the invoice.
+</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>3.3</t>
+        </is>
+      </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
           <t>string</t>
@@ -32366,17 +32354,18 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>invoice_details[].retained_taxes[].tax</t>
+          <t>place_of_issue</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>The type of retained tax (for example, ISR, IVA or IEPS).</t>
+          <t xml:space="preserve">The postcode of where the invoice was issued.
+</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>ISR</t>
+          <t>01165</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
@@ -32387,7 +32376,7 @@
       <c r="E43" s="2" t="inlineStr"/>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
@@ -32401,29 +32390,22 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>invoice_details[].retained_taxes[].tax_percentage</t>
+          <t>invoice_details</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>The percentage of tax retained.</t>
-        </is>
-      </c>
-      <c r="C44" s="2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+          <t xml:space="preserve">A list of descriptions for each item (purchased product or service provided) in the invoice.
+</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr"/>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="E44" s="2" t="inlineStr">
-        <is>
-          <t>float</t>
-        </is>
-      </c>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="inlineStr"/>
       <c r="F44" s="2" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -32431,7 +32413,7 @@
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr"/>
@@ -32440,37 +32422,38 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>invoice_details[].retained_taxes[].retained_tax_amount</t>
+          <t>invoice_details[].collected_at</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>The amount of retained tax.</t>
+          <t xml:space="preserve">The ISO-8601 timestamp when the data point was collected.
+</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>209.79</t>
+          <t>2022-02-09T08:45:50.406032Z</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>float</t>
+          <t>date-time</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr"/>
@@ -32479,18 +32462,18 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>invoice_details[].collected_at</t>
+          <t>invoice_details[].description</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">The ISO-8601 timestamp when the data point was collected.
+          <t xml:space="preserve">The description of the invoice item (an invoice can have one or more items).
 </t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>2022-02-09T08:45:50.406032Z</t>
+          <t>December 2019 accounting fees</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
@@ -32498,19 +32481,15 @@
           <t>string</t>
         </is>
       </c>
-      <c r="E46" s="2" t="inlineStr">
-        <is>
-          <t>date-time</t>
-        </is>
-      </c>
+      <c r="E46" s="2" t="inlineStr"/>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H46" s="2" t="inlineStr"/>
@@ -32519,10 +32498,751 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
+          <t>invoice_details[].product_identification</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="inlineStr">
+        <is>
+          <t>The identification code of the product or the service, as defined by the legal entity in the country.\n- \U0001F1F2\U0001F1FD &lt;a href="http://200.57.3.89/Pys/catPyS.aspx" target="_blank"&gt;Mexico&lt;/a&gt;.</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>84101600</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr"/>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr"/>
+      <c r="I47" s="2" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>invoice_details[].quantity</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>The quantity of this invoice item.</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr"/>
+      <c r="I48" s="2" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>invoice_details[].unit_code</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="inlineStr">
+        <is>
+          <t>The unit of measure, as defined by the legal entity in the country. \n- \U0001F1F2\U0001F1FD Mexico &lt;a href="https://developers.belvo.com/docs/sat-catalogs#unit-code" target="_blank"&gt;SAT catalog reference&lt;/a&gt;.</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>E48</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr"/>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr"/>
+      <c r="I49" s="2" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>invoice_details[].unit_description</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>The description of the item, as defined by the legal entity in the country.\n- \U0001F1F2\U0001F1FD Mexico &lt;a href="https://developers.belvo.com/docs/sat-catalogs#unit-code" target="_blank"&gt;SAT catalog reference&lt;/a&gt;.</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>Unidad de servicio</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr"/>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr"/>
+      <c r="I50" s="2" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>invoice_details[].unit_amount</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>The price of one a singular item.</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr"/>
+      <c r="I51" s="2" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>invoice_details[].tax_type</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The item's tax type.
+</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr"/>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr"/>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr"/>
+      <c r="I52" s="2" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="inlineStr">
+        <is>
+          <t>invoice_details[].pre_tax_amount</t>
+        </is>
+      </c>
+      <c r="B53" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The total price for this item before tax is applied (`quantity` x `unit_amount`).
+</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr"/>
+      <c r="I53" s="2" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>invoice_details[].tax_percentage</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>The tax percentage to apply.</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr"/>
+      <c r="I54" s="2" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="inlineStr">
+        <is>
+          <t>invoice_details[].tax_amount</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The amount of tax for this invoice item (`pre_tax_amount` x `tax_percentage`).
+</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr"/>
+      <c r="I55" s="2" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>invoice_details[].total_amount</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>The total price for this invoice item (`pre_tax_amount` + `tax_amount`).</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>464</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr"/>
+      <c r="I56" s="2" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>invoice_details[].retained_taxes</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="inlineStr">
+        <is>
+          <t>The retained tax on the invoice item.</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr"/>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr"/>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr"/>
+      <c r="I57" s="2" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>invoice_details[].retained_taxes[].collected_at</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The ISO-8601 timestamp when the data point was collected.
+</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>2022-02-09T08:45:50.406032Z</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>date-time</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr"/>
+      <c r="I58" s="2" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="inlineStr">
+        <is>
+          <t>invoice_details[].retained_taxes[].tax</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="inlineStr">
+        <is>
+          <t>The type of retained tax (for example, ISR, IVA or IEPS).</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>ISR</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr"/>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr"/>
+      <c r="I59" s="2" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>invoice_details[].retained_taxes[].tax_percentage</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>The percentage of tax retained.</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="F60" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G60" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H60" s="2" t="inlineStr"/>
+      <c r="I60" s="2" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="inlineStr">
+        <is>
+          <t>invoice_details[].retained_taxes[].retained_tax_amount</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="inlineStr">
+        <is>
+          <t>The amount of retained tax.</t>
+        </is>
+      </c>
+      <c r="C61" s="2" t="inlineStr">
+        <is>
+          <t>209.79</t>
+        </is>
+      </c>
+      <c r="D61" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="F61" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G61" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H61" s="2" t="inlineStr"/>
+      <c r="I61" s="2" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>invoice_details[].transferred_taxes</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>The transferred taxes related to the invoice.</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="inlineStr"/>
+      <c r="D62" s="2" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="inlineStr"/>
+      <c r="F62" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G62" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H62" s="2" t="inlineStr"/>
+      <c r="I62" s="2" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="inlineStr">
+        <is>
+          <t>invoice_details[].transferred_taxes[].collected_at</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The ISO-8601 timestamp when the data point was collected.
+</t>
+        </is>
+      </c>
+      <c r="C63" s="2" t="inlineStr">
+        <is>
+          <t>2022-02-09T08:45:50.406032Z</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="inlineStr">
+        <is>
+          <t>date-time</t>
+        </is>
+      </c>
+      <c r="F63" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G63" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H63" s="2" t="inlineStr"/>
+      <c r="I63" s="2" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>invoice_details[].transferred_taxes[].tax</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>The type of transferred tax (for example, ISR, IVA or IEPS).</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="inlineStr">
+        <is>
+          <t>IVA</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="inlineStr"/>
+      <c r="F64" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G64" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H64" s="2" t="inlineStr"/>
+      <c r="I64" s="2" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="inlineStr">
+        <is>
+          <t>invoice_details[].transferred_taxes[].tax_percentage</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="inlineStr">
+        <is>
+          <t>The percentage of tax transferred.</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="F65" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G65" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H65" s="2" t="inlineStr"/>
+      <c r="I65" s="2" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>invoice_details[].transferred_taxes[].transferred_tax_amount</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="inlineStr">
+        <is>
+          <t>The amount of transferred tax.</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="inlineStr">
+        <is>
+          <t>209.79</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="F66" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G66" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H66" s="2" t="inlineStr"/>
+      <c r="I66" s="2" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="inlineStr">
+        <is>
           <t>currency</t>
         </is>
       </c>
-      <c r="B47" s="2" t="inlineStr">
+      <c r="B67" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">The currency of the invoice. For example:
  - 🇧🇷 BRL (Brazilian Real)
@@ -32532,346 +33252,447 @@
 </t>
         </is>
       </c>
-      <c r="C47" s="2" t="inlineStr">
+      <c r="C67" s="2" t="inlineStr">
         <is>
           <t>MXN</t>
         </is>
       </c>
-      <c r="D47" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E47" s="2" t="inlineStr"/>
-      <c r="F47" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G47" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H47" s="2" t="inlineStr"/>
-      <c r="I47" s="2" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="inlineStr">
+      <c r="D67" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="inlineStr"/>
+      <c r="F67" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G67" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H67" s="2" t="inlineStr"/>
+      <c r="I67" s="2" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="inlineStr">
         <is>
           <t>subtotal_amount</t>
         </is>
       </c>
-      <c r="B48" s="2" t="inlineStr">
+      <c r="B68" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">The pretax amount of this invoice (sum of each item's `pre_tax_amount`).
 </t>
         </is>
       </c>
-      <c r="C48" s="2" t="inlineStr">
+      <c r="C68" s="2" t="inlineStr">
         <is>
           <t>400</t>
         </is>
       </c>
-      <c r="D48" s="2" t="inlineStr">
+      <c r="D68" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="E48" s="2" t="inlineStr">
+      <c r="E68" s="2" t="inlineStr">
         <is>
           <t>float</t>
         </is>
       </c>
-      <c r="F48" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G48" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H48" s="2" t="inlineStr"/>
-      <c r="I48" s="2" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="inlineStr">
+      <c r="F68" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G68" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H68" s="2" t="inlineStr"/>
+      <c r="I68" s="2" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="inlineStr">
         <is>
           <t>exchange_rate</t>
         </is>
       </c>
-      <c r="B49" s="2" t="inlineStr">
+      <c r="B69" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">The exchange rate used in this invoice for the currency.
 </t>
         </is>
       </c>
-      <c r="C49" s="2" t="inlineStr">
+      <c r="C69" s="2" t="inlineStr">
         <is>
           <t>0.052</t>
         </is>
       </c>
-      <c r="D49" s="2" t="inlineStr">
+      <c r="D69" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="E49" s="2" t="inlineStr">
+      <c r="E69" s="2" t="inlineStr">
         <is>
           <t>float</t>
         </is>
       </c>
-      <c r="F49" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G49" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H49" s="2" t="inlineStr"/>
-      <c r="I49" s="2" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="inlineStr">
+      <c r="F69" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G69" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H69" s="2" t="inlineStr"/>
+      <c r="I69" s="2" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="inlineStr">
         <is>
           <t>tax_amount</t>
         </is>
       </c>
-      <c r="B50" s="2" t="inlineStr">
+      <c r="B70" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">The amount of tax for this invoice (sum of each item's `tax_amount`).
 </t>
         </is>
       </c>
-      <c r="C50" s="2" t="inlineStr">
+      <c r="C70" s="2" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="D50" s="2" t="inlineStr">
+      <c r="D70" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="E50" s="2" t="inlineStr">
+      <c r="E70" s="2" t="inlineStr">
         <is>
           <t>float</t>
         </is>
       </c>
-      <c r="F50" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G50" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H50" s="2" t="inlineStr"/>
-      <c r="I50" s="2" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="inlineStr">
+      <c r="F70" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G70" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H70" s="2" t="inlineStr"/>
+      <c r="I70" s="2" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="inlineStr">
         <is>
           <t>discount_amount</t>
         </is>
       </c>
-      <c r="B51" s="2" t="inlineStr">
+      <c r="B71" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">The total amount discounted in this invoice.
 </t>
         </is>
       </c>
-      <c r="C51" s="2" t="inlineStr">
+      <c r="C71" s="2" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="D51" s="2" t="inlineStr">
+      <c r="D71" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="E51" s="2" t="inlineStr">
+      <c r="E71" s="2" t="inlineStr">
         <is>
           <t>float</t>
         </is>
       </c>
-      <c r="F51" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G51" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H51" s="2" t="inlineStr"/>
-      <c r="I51" s="2" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="inlineStr">
+      <c r="F71" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G71" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H71" s="2" t="inlineStr"/>
+      <c r="I71" s="2" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="inlineStr">
         <is>
           <t>total_amount</t>
         </is>
       </c>
-      <c r="B52" s="2" t="inlineStr">
+      <c r="B72" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">The total amount of the invoice (`subtotal_amount` + `tax_amount` - `discount_amount`)
 </t>
         </is>
       </c>
-      <c r="C52" s="2" t="inlineStr">
+      <c r="C72" s="2" t="inlineStr">
         <is>
           <t>454</t>
         </is>
       </c>
-      <c r="D52" s="2" t="inlineStr">
+      <c r="D72" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="E52" s="2" t="inlineStr">
+      <c r="E72" s="2" t="inlineStr">
         <is>
           <t>float</t>
         </is>
       </c>
-      <c r="F52" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G52" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H52" s="2" t="inlineStr"/>
-      <c r="I52" s="2" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="inlineStr">
+      <c r="F72" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G72" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H72" s="2" t="inlineStr"/>
+      <c r="I72" s="2" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="inlineStr">
+        <is>
+          <t>related_invoices</t>
+        </is>
+      </c>
+      <c r="B73" s="2" t="inlineStr">
+        <is>
+          <t>A list of related invoices.</t>
+        </is>
+      </c>
+      <c r="C73" s="2" t="inlineStr"/>
+      <c r="D73" s="2" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="inlineStr"/>
+      <c r="F73" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G73" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H73" s="2" t="inlineStr"/>
+      <c r="I73" s="2" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>related_invoices[].relationship_type</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="inlineStr">
+        <is>
+          <t>The type of relationship between this invoice and the related invoice, as defined by the legal entity in the country. For more information, see our &lt;a href="https://developers.belvo.com/docs/sat-catalogs#related-invoices" target="_blank"&gt;SAT catalog reference article&lt;/a&gt;.</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="inlineStr"/>
+      <c r="F74" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G74" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H74" s="2" t="inlineStr"/>
+      <c r="I74" s="2" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="inlineStr">
+        <is>
+          <t>related_invoices[].related_invoice_identification</t>
+        </is>
+      </c>
+      <c r="B75" s="2" t="inlineStr">
+        <is>
+          <t>The SAT ID of the related invoice.</t>
+        </is>
+      </c>
+      <c r="C75" s="2" t="inlineStr">
+        <is>
+          <t>INV-123456</t>
+        </is>
+      </c>
+      <c r="D75" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="inlineStr"/>
+      <c r="F75" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G75" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H75" s="2" t="inlineStr"/>
+      <c r="I75" s="2" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="inlineStr">
         <is>
           <t>payments</t>
         </is>
       </c>
-      <c r="B53" s="2" t="inlineStr">
+      <c r="B76" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A list detailing all the invoice payments.
 </t>
         </is>
       </c>
-      <c r="C53" s="2" t="inlineStr"/>
-      <c r="D53" s="2" t="inlineStr">
+      <c r="C76" s="2" t="inlineStr"/>
+      <c r="D76" s="2" t="inlineStr">
         <is>
           <t>array</t>
         </is>
       </c>
-      <c r="E53" s="2" t="inlineStr"/>
-      <c r="F53" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G53" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H53" s="2" t="inlineStr"/>
-      <c r="I53" s="2" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="inlineStr">
+      <c r="E76" s="2" t="inlineStr"/>
+      <c r="F76" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G76" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H76" s="2" t="inlineStr"/>
+      <c r="I76" s="2" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="inlineStr">
         <is>
           <t>payments[].date</t>
         </is>
       </c>
-      <c r="B54" s="2" t="inlineStr">
+      <c r="B77" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">ISO-8601 timestamp when the payment was made.
 </t>
         </is>
       </c>
-      <c r="C54" s="2" t="inlineStr">
+      <c r="C77" s="2" t="inlineStr">
         <is>
           <t>2020-03-17T12:00:00.000Z</t>
         </is>
       </c>
-      <c r="D54" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E54" s="2" t="inlineStr">
+      <c r="D77" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="inlineStr">
         <is>
           <t>date-time</t>
         </is>
       </c>
-      <c r="F54" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G54" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H54" s="2" t="inlineStr"/>
-      <c r="I54" s="2" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="inlineStr">
+      <c r="F77" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G77" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H77" s="2" t="inlineStr"/>
+      <c r="I77" s="2" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="inlineStr">
         <is>
           <t>payments[].payment_type</t>
         </is>
       </c>
-      <c r="B55" s="2" t="inlineStr">
+      <c r="B78" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Payment type code used for this invoice, as defined by the country's legal entity.
 - 🇲🇽 Mexico &lt;a href="https://developers.belvo.com/docs/sat-catalogs#payment-type" target="_blank"&gt;SAT catalog reference article&lt;/a&gt;
 </t>
         </is>
       </c>
-      <c r="C55" s="2" t="inlineStr">
+      <c r="C78" s="2" t="inlineStr">
         <is>
           <t>03</t>
         </is>
       </c>
-      <c r="D55" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E55" s="2" t="inlineStr"/>
-      <c r="F55" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G55" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H55" s="2" t="inlineStr"/>
-      <c r="I55" s="2" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="inlineStr">
+      <c r="D78" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="inlineStr"/>
+      <c r="F78" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G78" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H78" s="2" t="inlineStr"/>
+      <c r="I78" s="2" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="inlineStr">
         <is>
           <t>payments[].currency</t>
         </is>
       </c>
-      <c r="B56" s="2" t="inlineStr">
+      <c r="B79" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">The currency of the payment. For example:
 - 🇧🇷 BRL (Brazilian Real)
@@ -32881,397 +33702,397 @@
 </t>
         </is>
       </c>
-      <c r="C56" s="2" t="inlineStr">
+      <c r="C79" s="2" t="inlineStr">
         <is>
           <t>BRL</t>
         </is>
       </c>
-      <c r="D56" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E56" s="2" t="inlineStr"/>
-      <c r="F56" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G56" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H56" s="2" t="inlineStr"/>
-      <c r="I56" s="2" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="inlineStr">
+      <c r="D79" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="inlineStr"/>
+      <c r="F79" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G79" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H79" s="2" t="inlineStr"/>
+      <c r="I79" s="2" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="inlineStr">
         <is>
           <t>payments[].exchange_rate</t>
         </is>
       </c>
-      <c r="B57" s="2" t="inlineStr">
+      <c r="B80" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">The `currency` to MXN currency exchange rate when the payment was made.
 </t>
         </is>
       </c>
-      <c r="C57" s="2" t="inlineStr">
+      <c r="C80" s="2" t="inlineStr">
         <is>
           <t>3.75</t>
         </is>
       </c>
-      <c r="D57" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E57" s="2" t="inlineStr"/>
-      <c r="F57" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G57" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H57" s="2" t="inlineStr"/>
-      <c r="I57" s="2" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="inlineStr">
+      <c r="D80" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="inlineStr"/>
+      <c r="F80" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G80" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H80" s="2" t="inlineStr"/>
+      <c r="I80" s="2" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="inlineStr">
         <is>
           <t>payments[].amount</t>
         </is>
       </c>
-      <c r="B58" s="2" t="inlineStr">
+      <c r="B81" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">The invoice amount, in the currency of the original invoice.
 </t>
         </is>
       </c>
-      <c r="C58" s="2" t="inlineStr">
+      <c r="C81" s="2" t="inlineStr">
         <is>
           <t>8000.5</t>
         </is>
       </c>
-      <c r="D58" s="2" t="inlineStr">
+      <c r="D81" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="E58" s="2" t="inlineStr">
+      <c r="E81" s="2" t="inlineStr">
         <is>
           <t>float</t>
         </is>
       </c>
-      <c r="F58" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G58" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H58" s="2" t="inlineStr"/>
-      <c r="I58" s="2" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="inlineStr">
+      <c r="F81" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G81" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H81" s="2" t="inlineStr"/>
+      <c r="I81" s="2" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="inlineStr">
         <is>
           <t>payments[].operation_number</t>
         </is>
       </c>
-      <c r="B59" s="2" t="inlineStr">
+      <c r="B82" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">The fiscal institution's internal identifier for the operation.
 </t>
         </is>
       </c>
-      <c r="C59" s="2" t="inlineStr">
+      <c r="C82" s="2" t="inlineStr">
         <is>
           <t>831840</t>
         </is>
       </c>
-      <c r="D59" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E59" s="2" t="inlineStr"/>
-      <c r="F59" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G59" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H59" s="2" t="inlineStr"/>
-      <c r="I59" s="2" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="inlineStr">
+      <c r="D82" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="inlineStr"/>
+      <c r="F82" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G82" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H82" s="2" t="inlineStr"/>
+      <c r="I82" s="2" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="inlineStr">
         <is>
           <t>payments[].beneficiary_rfc</t>
         </is>
       </c>
-      <c r="B60" s="2" t="inlineStr">
+      <c r="B83" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">The fiscal ID of the payment beneficiary.
 </t>
         </is>
       </c>
-      <c r="C60" s="2" t="inlineStr">
+      <c r="C83" s="2" t="inlineStr">
         <is>
           <t>BNM840515VB1</t>
         </is>
       </c>
-      <c r="D60" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E60" s="2" t="inlineStr"/>
-      <c r="F60" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G60" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H60" s="2" t="inlineStr"/>
-      <c r="I60" s="2" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="inlineStr">
+      <c r="D83" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="inlineStr"/>
+      <c r="F83" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G83" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H83" s="2" t="inlineStr"/>
+      <c r="I83" s="2" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="inlineStr">
         <is>
           <t>payments[].beneficiary_account_number</t>
         </is>
       </c>
-      <c r="B61" s="2" t="inlineStr">
+      <c r="B84" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">The bank account number of the payment beneficiary.
 </t>
         </is>
       </c>
-      <c r="C61" s="2" t="inlineStr">
+      <c r="C84" s="2" t="inlineStr">
         <is>
           <t>12343453245633</t>
         </is>
       </c>
-      <c r="D61" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E61" s="2" t="inlineStr"/>
-      <c r="F61" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G61" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H61" s="2" t="inlineStr"/>
-      <c r="I61" s="2" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="inlineStr">
+      <c r="D84" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="inlineStr"/>
+      <c r="F84" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G84" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H84" s="2" t="inlineStr"/>
+      <c r="I84" s="2" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="inlineStr">
         <is>
           <t>payments[].payer_rfc</t>
         </is>
       </c>
-      <c r="B62" s="2" t="inlineStr">
+      <c r="B85" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">The fiscal ID of the payment issuer.
 </t>
         </is>
       </c>
-      <c r="C62" s="2" t="inlineStr">
+      <c r="C85" s="2" t="inlineStr">
         <is>
           <t>BKJM840515VB1</t>
         </is>
       </c>
-      <c r="D62" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E62" s="2" t="inlineStr"/>
-      <c r="F62" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G62" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H62" s="2" t="inlineStr"/>
-      <c r="I62" s="2" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="inlineStr">
+      <c r="D85" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="inlineStr"/>
+      <c r="F85" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G85" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H85" s="2" t="inlineStr"/>
+      <c r="I85" s="2" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="inlineStr">
         <is>
           <t>payments[].payer_account_number</t>
         </is>
       </c>
-      <c r="B63" s="2" t="inlineStr">
+      <c r="B86" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">The bank account number of the payment issuer.
 </t>
         </is>
       </c>
-      <c r="C63" s="2" t="inlineStr">
+      <c r="C86" s="2" t="inlineStr">
         <is>
           <t>13343663245699</t>
         </is>
       </c>
-      <c r="D63" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E63" s="2" t="inlineStr"/>
-      <c r="F63" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G63" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H63" s="2" t="inlineStr"/>
-      <c r="I63" s="2" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="inlineStr">
+      <c r="D86" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="inlineStr"/>
+      <c r="F86" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G86" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H86" s="2" t="inlineStr"/>
+      <c r="I86" s="2" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="inlineStr">
         <is>
           <t>payments[].payer_bank_name</t>
         </is>
       </c>
-      <c r="B64" s="2" t="inlineStr">
+      <c r="B87" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">The banking institution that was used by the payment issuer.
 </t>
         </is>
       </c>
-      <c r="C64" s="2" t="inlineStr">
+      <c r="C87" s="2" t="inlineStr">
         <is>
           <t>CITI BANAMEX</t>
         </is>
       </c>
-      <c r="D64" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E64" s="2" t="inlineStr"/>
-      <c r="F64" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G64" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H64" s="2" t="inlineStr"/>
-      <c r="I64" s="2" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="inlineStr">
+      <c r="D87" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="inlineStr"/>
+      <c r="F87" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G87" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H87" s="2" t="inlineStr"/>
+      <c r="I87" s="2" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="inlineStr">
         <is>
           <t>payments[].related_documents</t>
         </is>
       </c>
-      <c r="B65" s="2" t="inlineStr">
+      <c r="B88" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A list of all the related deferred invoices affected by the payment.
 </t>
         </is>
       </c>
-      <c r="C65" s="2" t="inlineStr"/>
-      <c r="D65" s="2" t="inlineStr">
+      <c r="C88" s="2" t="inlineStr"/>
+      <c r="D88" s="2" t="inlineStr">
         <is>
           <t>array</t>
         </is>
       </c>
-      <c r="E65" s="2" t="inlineStr"/>
-      <c r="F65" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G65" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H65" s="2" t="inlineStr"/>
-      <c r="I65" s="2" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="inlineStr">
+      <c r="E88" s="2" t="inlineStr"/>
+      <c r="F88" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G88" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H88" s="2" t="inlineStr"/>
+      <c r="I88" s="2" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="inlineStr">
         <is>
           <t>payments[].related_documents[].invoice_identification</t>
         </is>
       </c>
-      <c r="B66" s="2" t="inlineStr">
+      <c r="B89" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">The fiscal institution's unique ID for the related deferred invoice.
 </t>
         </is>
       </c>
-      <c r="C66" s="2" t="inlineStr">
+      <c r="C89" s="2" t="inlineStr">
         <is>
           <t>7EE015F3-6311-11EA-B02A-00155D014007</t>
         </is>
       </c>
-      <c r="D66" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E66" s="2" t="inlineStr"/>
-      <c r="F66" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G66" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H66" s="2" t="inlineStr"/>
-      <c r="I66" s="2" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="inlineStr">
+      <c r="D89" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="inlineStr"/>
+      <c r="F89" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G89" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H89" s="2" t="inlineStr"/>
+      <c r="I89" s="2" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="inlineStr">
         <is>
           <t>payments[].related_documents[].currency</t>
         </is>
       </c>
-      <c r="B67" s="2" t="inlineStr">
+      <c r="B90" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">The currency of the related invoice. For example:
 - 🇧🇷 BRL (Brazilian Real)
@@ -33281,578 +34102,578 @@
 </t>
         </is>
       </c>
-      <c r="C67" s="2" t="inlineStr">
+      <c r="C90" s="2" t="inlineStr">
         <is>
           <t>MXN</t>
         </is>
       </c>
-      <c r="D67" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E67" s="2" t="inlineStr"/>
-      <c r="F67" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G67" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H67" s="2" t="inlineStr"/>
-      <c r="I67" s="2" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="inlineStr">
+      <c r="D90" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="inlineStr"/>
+      <c r="F90" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G90" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H90" s="2" t="inlineStr"/>
+      <c r="I90" s="2" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="inlineStr">
         <is>
           <t>payments[].related_documents[].payment_method</t>
         </is>
       </c>
-      <c r="B68" s="2" t="inlineStr">
+      <c r="B91" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">The payment method of the related invoice.
 </t>
         </is>
       </c>
-      <c r="C68" s="2" t="inlineStr">
+      <c r="C91" s="2" t="inlineStr">
         <is>
           <t>PPD</t>
         </is>
       </c>
-      <c r="D68" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E68" s="2" t="inlineStr"/>
-      <c r="F68" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G68" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H68" s="2" t="inlineStr"/>
-      <c r="I68" s="2" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="inlineStr">
+      <c r="D91" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="inlineStr"/>
+      <c r="F91" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G91" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H91" s="2" t="inlineStr"/>
+      <c r="I91" s="2" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="inlineStr">
         <is>
           <t>payments[].related_documents[].partiality_number</t>
         </is>
       </c>
-      <c r="B69" s="2" t="inlineStr">
+      <c r="B92" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">The payment installment number.
 </t>
         </is>
       </c>
-      <c r="C69" s="2" t="inlineStr">
+      <c r="C92" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D69" s="2" t="inlineStr">
+      <c r="D92" s="2" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="E69" s="2" t="inlineStr">
+      <c r="E92" s="2" t="inlineStr">
         <is>
           <t>int32</t>
         </is>
       </c>
-      <c r="F69" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G69" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H69" s="2" t="inlineStr"/>
-      <c r="I69" s="2" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="inlineStr">
+      <c r="F92" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G92" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H92" s="2" t="inlineStr"/>
+      <c r="I92" s="2" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="inlineStr">
         <is>
           <t>payments[].related_documents[].previous_balance</t>
         </is>
       </c>
-      <c r="B70" s="2" t="inlineStr">
+      <c r="B93" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">The invoice amount before the payment.
 </t>
         </is>
       </c>
-      <c r="C70" s="2" t="inlineStr">
+      <c r="C93" s="2" t="inlineStr">
         <is>
           <t>18877.84</t>
         </is>
       </c>
-      <c r="D70" s="2" t="inlineStr">
+      <c r="D93" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="E70" s="2" t="inlineStr">
+      <c r="E93" s="2" t="inlineStr">
         <is>
           <t>float</t>
         </is>
       </c>
-      <c r="F70" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G70" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H70" s="2" t="inlineStr"/>
-      <c r="I70" s="2" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="inlineStr">
+      <c r="F93" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G93" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H93" s="2" t="inlineStr"/>
+      <c r="I93" s="2" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="inlineStr">
         <is>
           <t>payments[].related_documents[].amount_paid</t>
         </is>
       </c>
-      <c r="B71" s="2" t="inlineStr">
+      <c r="B94" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">The amount paid in this installment.
 </t>
         </is>
       </c>
-      <c r="C71" s="2" t="inlineStr">
+      <c r="C94" s="2" t="inlineStr">
         <is>
           <t>8000</t>
         </is>
       </c>
-      <c r="D71" s="2" t="inlineStr">
+      <c r="D94" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="E71" s="2" t="inlineStr">
+      <c r="E94" s="2" t="inlineStr">
         <is>
           <t>float</t>
         </is>
       </c>
-      <c r="F71" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G71" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H71" s="2" t="inlineStr"/>
-      <c r="I71" s="2" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="inlineStr">
+      <c r="F94" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G94" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H94" s="2" t="inlineStr"/>
+      <c r="I94" s="2" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="inlineStr">
         <is>
           <t>payments[].related_documents[].outstanding_balance</t>
         </is>
       </c>
-      <c r="B72" s="2" t="inlineStr">
+      <c r="B95" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">The amount remaining to be paid.
 </t>
         </is>
       </c>
-      <c r="C72" s="2" t="inlineStr">
+      <c r="C95" s="2" t="inlineStr">
         <is>
           <t>10877.84</t>
         </is>
       </c>
-      <c r="D72" s="2" t="inlineStr">
+      <c r="D95" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="E72" s="2" t="inlineStr">
+      <c r="E95" s="2" t="inlineStr">
         <is>
           <t>float</t>
         </is>
       </c>
-      <c r="F72" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G72" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H72" s="2" t="inlineStr"/>
-      <c r="I72" s="2" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="inlineStr">
+      <c r="F95" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G95" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H95" s="2" t="inlineStr"/>
+      <c r="I95" s="2" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="inlineStr">
         <is>
           <t>payroll</t>
         </is>
       </c>
-      <c r="B73" s="2" t="inlineStr">
+      <c r="B96" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Details regarding the payroll payment. Only applicable for payroll invoices.
 </t>
         </is>
       </c>
-      <c r="C73" s="2" t="inlineStr"/>
-      <c r="D73" s="2" t="inlineStr">
+      <c r="C96" s="2" t="inlineStr"/>
+      <c r="D96" s="2" t="inlineStr">
         <is>
           <t>object</t>
         </is>
       </c>
-      <c r="E73" s="2" t="inlineStr"/>
-      <c r="F73" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G73" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H73" s="2" t="inlineStr"/>
-      <c r="I73" s="2" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="inlineStr">
+      <c r="E96" s="2" t="inlineStr"/>
+      <c r="F96" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G96" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H96" s="2" t="inlineStr"/>
+      <c r="I96" s="2" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="inlineStr">
         <is>
           <t>payroll.days</t>
         </is>
       </c>
-      <c r="B74" s="2" t="inlineStr">
+      <c r="B97" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">The number of days covered by the payment.
 </t>
         </is>
       </c>
-      <c r="C74" s="2" t="inlineStr">
+      <c r="C97" s="2" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="D74" s="2" t="inlineStr">
+      <c r="D97" s="2" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="E74" s="2" t="inlineStr">
+      <c r="E97" s="2" t="inlineStr">
         <is>
           <t>int32</t>
         </is>
       </c>
-      <c r="F74" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G74" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H74" s="2" t="inlineStr"/>
-      <c r="I74" s="2" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="inlineStr">
+      <c r="F97" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G97" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H97" s="2" t="inlineStr"/>
+      <c r="I97" s="2" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="inlineStr">
         <is>
           <t>payroll.type</t>
         </is>
       </c>
-      <c r="B75" s="2" t="inlineStr">
+      <c r="B98" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">The payroll type, as defined by the legal entity of the country.
 - 🇲🇽 Mexico &lt;a href="https://developers.belvo.com/docs/sat-catalogs#payroll-type" target="_blank"&gt;SAT catalog reference article&lt;/a&gt;
 </t>
         </is>
       </c>
-      <c r="C75" s="2" t="inlineStr">
+      <c r="C98" s="2" t="inlineStr">
         <is>
           <t>O</t>
         </is>
       </c>
-      <c r="D75" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E75" s="2" t="inlineStr"/>
-      <c r="F75" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G75" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H75" s="2" t="inlineStr"/>
-      <c r="I75" s="2" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="2" t="inlineStr">
+      <c r="D98" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="inlineStr"/>
+      <c r="F98" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G98" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H98" s="2" t="inlineStr"/>
+      <c r="I98" s="2" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="inlineStr">
         <is>
           <t>payroll.amount</t>
         </is>
       </c>
-      <c r="B76" s="2" t="inlineStr">
+      <c r="B99" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">The total amount of the payroll payment.
 </t>
         </is>
       </c>
-      <c r="C76" s="2" t="inlineStr">
+      <c r="C99" s="2" t="inlineStr">
         <is>
           <t>20400.1</t>
         </is>
       </c>
-      <c r="D76" s="2" t="inlineStr">
+      <c r="D99" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="E76" s="2" t="inlineStr">
+      <c r="E99" s="2" t="inlineStr">
         <is>
           <t>float</t>
         </is>
       </c>
-      <c r="F76" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G76" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H76" s="2" t="inlineStr"/>
-      <c r="I76" s="2" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="2" t="inlineStr">
+      <c r="F99" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G99" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H99" s="2" t="inlineStr"/>
+      <c r="I99" s="2" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="inlineStr">
         <is>
           <t>payroll.version</t>
         </is>
       </c>
-      <c r="B77" s="2" t="inlineStr">
+      <c r="B100" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">The version of the payroll object.
 </t>
         </is>
       </c>
-      <c r="C77" s="2" t="inlineStr">
+      <c r="C100" s="2" t="inlineStr">
         <is>
           <t>1.2</t>
         </is>
       </c>
-      <c r="D77" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E77" s="2" t="inlineStr"/>
-      <c r="F77" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G77" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H77" s="2" t="inlineStr"/>
-      <c r="I77" s="2" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="inlineStr">
+      <c r="D100" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="inlineStr"/>
+      <c r="F100" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G100" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H100" s="2" t="inlineStr"/>
+      <c r="I100" s="2" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="inlineStr">
         <is>
           <t>payroll.date_from</t>
         </is>
       </c>
-      <c r="B78" s="2" t="inlineStr">
+      <c r="B101" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">The start date of the payment period, in `YYYY-MM-DD` format.
 </t>
         </is>
       </c>
-      <c r="C78" s="2" t="inlineStr">
+      <c r="C101" s="2" t="inlineStr">
         <is>
           <t>2018-07-01</t>
         </is>
       </c>
-      <c r="D78" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E78" s="2" t="inlineStr">
+      <c r="D101" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="F78" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G78" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H78" s="2" t="inlineStr"/>
-      <c r="I78" s="2" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="inlineStr">
+      <c r="F101" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G101" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H101" s="2" t="inlineStr"/>
+      <c r="I101" s="2" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="inlineStr">
         <is>
           <t>payroll.date_to</t>
         </is>
       </c>
-      <c r="B79" s="2" t="inlineStr">
+      <c r="B102" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">The end date of the payment period, in `YYYY-MM-DD` format.
 </t>
         </is>
       </c>
-      <c r="C79" s="2" t="inlineStr">
+      <c r="C102" s="2" t="inlineStr">
         <is>
           <t>2018-07-31</t>
         </is>
       </c>
-      <c r="D79" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E79" s="2" t="inlineStr">
+      <c r="D102" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="F79" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G79" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H79" s="2" t="inlineStr"/>
-      <c r="I79" s="2" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="inlineStr">
+      <c r="F102" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G102" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H102" s="2" t="inlineStr"/>
+      <c r="I102" s="2" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="inlineStr">
         <is>
           <t>payroll.collected_at</t>
         </is>
       </c>
-      <c r="B80" s="2" t="inlineStr">
+      <c r="B103" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">The ISO-8601 timestamp when the data point was collected.
 </t>
         </is>
       </c>
-      <c r="C80" s="2" t="inlineStr">
+      <c r="C103" s="2" t="inlineStr">
         <is>
           <t>2022-02-09T08:45:50.406032Z</t>
         </is>
       </c>
-      <c r="D80" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E80" s="2" t="inlineStr">
+      <c r="D103" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="inlineStr">
         <is>
           <t>date-time</t>
         </is>
       </c>
-      <c r="F80" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G80" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H80" s="2" t="inlineStr"/>
-      <c r="I80" s="2" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="2" t="inlineStr">
+      <c r="F103" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G103" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H103" s="2" t="inlineStr"/>
+      <c r="I103" s="2" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="inlineStr">
         <is>
           <t>payroll.payment_date</t>
         </is>
       </c>
-      <c r="B81" s="2" t="inlineStr">
+      <c r="B104" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">The payment date, in `YYYY-MM-DD` format.
 </t>
         </is>
       </c>
-      <c r="C81" s="2" t="inlineStr">
+      <c r="C104" s="2" t="inlineStr">
         <is>
           <t>2018-07-16</t>
         </is>
       </c>
-      <c r="D81" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E81" s="2" t="inlineStr">
+      <c r="D104" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="F81" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G81" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H81" s="2" t="inlineStr"/>
-      <c r="I81" s="2" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="2" t="inlineStr">
+      <c r="F104" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G104" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H104" s="2" t="inlineStr"/>
+      <c r="I104" s="2" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="inlineStr">
         <is>
           <t>payroll.periodicity</t>
         </is>
       </c>
-      <c r="B82" s="2" t="inlineStr">
+      <c r="B105" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">How often the payroll payment is made.
 For Mexico's SAT, we return one of the following values:
@@ -33870,505 +34691,540 @@
 </t>
         </is>
       </c>
-      <c r="C82" s="2" t="inlineStr">
+      <c r="C105" s="2" t="inlineStr">
         <is>
           <t>MONTHLY</t>
         </is>
       </c>
-      <c r="D82" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E82" s="2" t="inlineStr"/>
-      <c r="F82" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G82" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H82" s="2" t="inlineStr">
+      <c r="D105" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="inlineStr"/>
+      <c r="F105" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G105" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H105" s="2" t="inlineStr">
         <is>
           <t>DAILY, WEEKLY, TENTH_DAY, FOURTEENTH_DAY, FIFTEENTH_DAY, MONTHLY, BIMONTHLY, PER_TASK, COMMISSION, ONE_OFF, OTHER_PERIODICITY, null</t>
         </is>
       </c>
-      <c r="I82" s="2" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="2" t="inlineStr">
+      <c r="I105" s="2" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="inlineStr">
         <is>
           <t>payroll.earnings_breakdown</t>
         </is>
       </c>
-      <c r="B83" s="2" t="inlineStr">
+      <c r="B106" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A breakdown of the earnings for the payroll payment.
 </t>
         </is>
       </c>
-      <c r="C83" s="2" t="inlineStr"/>
-      <c r="D83" s="2" t="inlineStr">
+      <c r="C106" s="2" t="inlineStr"/>
+      <c r="D106" s="2" t="inlineStr">
         <is>
           <t>array</t>
         </is>
       </c>
-      <c r="E83" s="2" t="inlineStr"/>
-      <c r="F83" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G83" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H83" s="2" t="inlineStr"/>
-      <c r="I83" s="2" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="2" t="inlineStr">
+      <c r="E106" s="2" t="inlineStr"/>
+      <c r="F106" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G106" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H106" s="2" t="inlineStr"/>
+      <c r="I106" s="2" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="inlineStr">
         <is>
           <t>payroll.earnings_breakdown[].type</t>
         </is>
       </c>
-      <c r="B84" s="2" t="inlineStr">
+      <c r="B107" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">The type of income. For a full list of possible values, please see the &lt;a href="https://developers.belvo.com/docs/sat-catalogs#payroll-earnings-breakdown-type" target="_blank"&gt;payroll earnings breakdown type table&lt;/a&gt;.
 </t>
         </is>
       </c>
-      <c r="C84" s="2" t="inlineStr">
+      <c r="C107" s="2" t="inlineStr">
         <is>
           <t>CHRISTMAS_BONUS</t>
         </is>
       </c>
-      <c r="D84" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E84" s="2" t="inlineStr"/>
-      <c r="F84" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G84" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H84" s="2" t="inlineStr"/>
-      <c r="I84" s="2" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="2" t="inlineStr">
+      <c r="D107" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="inlineStr"/>
+      <c r="F107" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G107" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H107" s="2" t="inlineStr"/>
+      <c r="I107" s="2" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="inlineStr">
         <is>
           <t>payroll.earnings_breakdown[].taxable_amount</t>
         </is>
       </c>
-      <c r="B85" s="2" t="inlineStr">
+      <c r="B108" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">The amount of the income that is taxable.
 </t>
         </is>
       </c>
-      <c r="C85" s="2" t="inlineStr">
+      <c r="C108" s="2" t="inlineStr">
         <is>
           <t>1505</t>
         </is>
       </c>
-      <c r="D85" s="2" t="inlineStr">
+      <c r="D108" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="E85" s="2" t="inlineStr">
+      <c r="E108" s="2" t="inlineStr">
         <is>
           <t>float</t>
         </is>
       </c>
-      <c r="F85" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G85" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H85" s="2" t="inlineStr"/>
-      <c r="I85" s="2" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="2" t="inlineStr">
+      <c r="F108" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G108" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H108" s="2" t="inlineStr"/>
+      <c r="I108" s="2" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="inlineStr">
         <is>
           <t>payroll.earnings_breakdown[].vat_free_amount</t>
         </is>
       </c>
-      <c r="B86" s="2" t="inlineStr">
+      <c r="B109" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">The amount of the income that is not subject to VAT.
 </t>
         </is>
       </c>
-      <c r="C86" s="2" t="inlineStr">
+      <c r="C109" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D86" s="2" t="inlineStr">
+      <c r="D109" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="E86" s="2" t="inlineStr">
+      <c r="E109" s="2" t="inlineStr">
         <is>
           <t>float</t>
         </is>
       </c>
-      <c r="F86" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G86" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H86" s="2" t="inlineStr"/>
-      <c r="I86" s="2" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="2" t="inlineStr">
+      <c r="F109" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G109" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H109" s="2" t="inlineStr"/>
+      <c r="I109" s="2" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="inlineStr">
         <is>
           <t>payroll.tax_deductions</t>
         </is>
       </c>
-      <c r="B87" s="2" t="inlineStr">
+      <c r="B110" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A breakdown of the tax deductions on the payroll payment.
 </t>
         </is>
       </c>
-      <c r="C87" s="2" t="inlineStr"/>
-      <c r="D87" s="2" t="inlineStr">
+      <c r="C110" s="2" t="inlineStr"/>
+      <c r="D110" s="2" t="inlineStr">
         <is>
           <t>array</t>
         </is>
       </c>
-      <c r="E87" s="2" t="inlineStr"/>
-      <c r="F87" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G87" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H87" s="2" t="inlineStr"/>
-      <c r="I87" s="2" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="2" t="inlineStr">
+      <c r="E110" s="2" t="inlineStr"/>
+      <c r="F110" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G110" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H110" s="2" t="inlineStr"/>
+      <c r="I110" s="2" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="inlineStr">
         <is>
           <t>payroll.tax_deductions[].type</t>
         </is>
       </c>
-      <c r="B88" s="2" t="inlineStr">
+      <c r="B111" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">The type of tax deduction. For a full list of possible values, please see the &lt;a href="https://developers.belvo.com/docs/sat-catalogs#payroll-tax-deductions-type" target="_blank"&gt;payroll tax deductions type table&lt;/a&gt;.
 </t>
         </is>
       </c>
-      <c r="C88" s="2" t="inlineStr">
+      <c r="C111" s="2" t="inlineStr">
         <is>
           <t>UNION_FEES</t>
         </is>
       </c>
-      <c r="D88" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E88" s="2" t="inlineStr"/>
-      <c r="F88" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G88" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H88" s="2" t="inlineStr"/>
-      <c r="I88" s="2" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="2" t="inlineStr">
+      <c r="D111" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="inlineStr"/>
+      <c r="F111" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G111" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H111" s="2" t="inlineStr"/>
+      <c r="I111" s="2" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="inlineStr">
         <is>
           <t>payroll.tax_deductions[].amount</t>
         </is>
       </c>
-      <c r="B89" s="2" t="inlineStr">
+      <c r="B112" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">The amount of the tax deduction.
 </t>
         </is>
       </c>
-      <c r="C89" s="2" t="inlineStr">
+      <c r="C112" s="2" t="inlineStr">
         <is>
           <t>1505</t>
         </is>
       </c>
-      <c r="D89" s="2" t="inlineStr">
+      <c r="D112" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="E89" s="2" t="inlineStr">
+      <c r="E112" s="2" t="inlineStr">
         <is>
           <t>float</t>
         </is>
       </c>
-      <c r="F89" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G89" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H89" s="2" t="inlineStr"/>
-      <c r="I89" s="2" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="2" t="inlineStr">
+      <c r="F112" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G112" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H112" s="2" t="inlineStr"/>
+      <c r="I112" s="2" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="inlineStr">
         <is>
           <t>payroll.other_payments</t>
         </is>
       </c>
-      <c r="B90" s="2" t="inlineStr">
+      <c r="B113" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A breakdown of other payments for the payroll.
 </t>
         </is>
       </c>
-      <c r="C90" s="2" t="inlineStr"/>
-      <c r="D90" s="2" t="inlineStr">
+      <c r="C113" s="2" t="inlineStr"/>
+      <c r="D113" s="2" t="inlineStr">
         <is>
           <t>array</t>
         </is>
       </c>
-      <c r="E90" s="2" t="inlineStr"/>
-      <c r="F90" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G90" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H90" s="2" t="inlineStr"/>
-      <c r="I90" s="2" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="2" t="inlineStr">
+      <c r="E113" s="2" t="inlineStr"/>
+      <c r="F113" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G113" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H113" s="2" t="inlineStr"/>
+      <c r="I113" s="2" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="inlineStr">
         <is>
           <t>payroll.other_payments[].type</t>
         </is>
       </c>
-      <c r="B91" s="2" t="inlineStr">
+      <c r="B114" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">The type of other payment. For a full list of possible values, please see the &lt;a href="https://developers.belvo.com/docs/sat-catalogs#payroll-other-payments-type" target="_blank"&gt;payroll other payments type table&lt;/a&gt;.
 </t>
         </is>
       </c>
-      <c r="C91" s="2" t="inlineStr">
+      <c r="C114" s="2" t="inlineStr">
         <is>
           <t>EMPLOYMENT_SUBSIDY</t>
         </is>
       </c>
-      <c r="D91" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E91" s="2" t="inlineStr"/>
-      <c r="F91" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G91" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H91" s="2" t="inlineStr"/>
-      <c r="I91" s="2" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="2" t="inlineStr">
+      <c r="D114" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="inlineStr"/>
+      <c r="F114" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G114" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H114" s="2" t="inlineStr"/>
+      <c r="I114" s="2" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="inlineStr">
         <is>
           <t>payroll.other_payments[].amount</t>
         </is>
       </c>
-      <c r="B92" s="2" t="inlineStr">
+      <c r="B115" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">The amount of the other payment.
 </t>
         </is>
       </c>
-      <c r="C92" s="2" t="inlineStr">
+      <c r="C115" s="2" t="inlineStr">
         <is>
           <t>1505</t>
         </is>
       </c>
-      <c r="D92" s="2" t="inlineStr">
+      <c r="D115" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="E92" s="2" t="inlineStr">
+      <c r="E115" s="2" t="inlineStr">
         <is>
           <t>float</t>
         </is>
       </c>
-      <c r="F92" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G92" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H92" s="2" t="inlineStr"/>
-      <c r="I92" s="2" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="2" t="inlineStr">
+      <c r="F115" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G115" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H115" s="2" t="inlineStr"/>
+      <c r="I115" s="2" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="inlineStr">
         <is>
           <t>folio</t>
         </is>
       </c>
-      <c r="B93" s="2" t="inlineStr">
+      <c r="B116" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">The internal control number that the taxpayer assigns to the invoice.
 </t>
         </is>
       </c>
-      <c r="C93" s="2" t="inlineStr">
+      <c r="C116" s="2" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="D93" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E93" s="2" t="inlineStr"/>
-      <c r="F93" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G93" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H93" s="2" t="inlineStr"/>
-      <c r="I93" s="2" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="2" t="inlineStr">
+      <c r="D116" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="inlineStr"/>
+      <c r="F116" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G116" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H116" s="2" t="inlineStr"/>
+      <c r="I116" s="2" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="inlineStr">
+        <is>
+          <t>export_type</t>
+        </is>
+      </c>
+      <c r="B117" s="2" t="inlineStr">
+        <is>
+          <t>The export type of the invoice, as defined by the legal entity in the country. For more information, see our &lt;a href="https://developers.belvo.com/docs/sat-catalogs#export-type" target="_blank"&gt;SAT catalog reference article&lt;/a&gt;.</t>
+        </is>
+      </c>
+      <c r="C117" s="2" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="D117" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="inlineStr"/>
+      <c r="F117" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G117" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H117" s="2" t="inlineStr"/>
+      <c r="I117" s="2" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="inlineStr">
         <is>
           <t>xml</t>
         </is>
       </c>
-      <c r="B94" s="2" t="inlineStr">
+      <c r="B118" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">XML of the invoice document.
 </t>
         </is>
       </c>
-      <c r="C94" s="2" t="inlineStr"/>
-      <c r="D94" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E94" s="2" t="inlineStr"/>
-      <c r="F94" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G94" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H94" s="2" t="inlineStr"/>
-      <c r="I94" s="2" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="2" t="inlineStr">
+      <c r="C118" s="2" t="inlineStr"/>
+      <c r="D118" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="inlineStr"/>
+      <c r="F118" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G118" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H118" s="2" t="inlineStr"/>
+      <c r="I118" s="2" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="inlineStr">
         <is>
           <t>warnings</t>
         </is>
       </c>
-      <c r="B95" s="2" t="inlineStr">
+      <c r="B119" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Object containing information about any warnings related to this invoice.
 </t>
         </is>
       </c>
-      <c r="C95" s="2" t="inlineStr"/>
-      <c r="D95" s="2" t="inlineStr">
+      <c r="C119" s="2" t="inlineStr"/>
+      <c r="D119" s="2" t="inlineStr">
         <is>
           <t>object</t>
         </is>
       </c>
-      <c r="E95" s="2" t="inlineStr"/>
-      <c r="F95" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G95" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H95" s="2" t="inlineStr"/>
-      <c r="I95" s="2" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="2" t="inlineStr">
+      <c r="E119" s="2" t="inlineStr"/>
+      <c r="F119" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G119" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H119" s="2" t="inlineStr"/>
+      <c r="I119" s="2" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="inlineStr">
         <is>
           <t>warnings.code</t>
         </is>
       </c>
-      <c r="B96" s="2" t="inlineStr">
+      <c r="B120" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">The warning code. Can be one of:
   - `sat_xml_limit_reached`
@@ -34377,37 +35233,37 @@
 </t>
         </is>
       </c>
-      <c r="C96" s="2" t="inlineStr">
+      <c r="C120" s="2" t="inlineStr">
         <is>
           <t>sat_xml_limit_reached</t>
         </is>
       </c>
-      <c r="D96" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E96" s="2" t="inlineStr"/>
-      <c r="F96" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G96" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H96" s="2" t="inlineStr"/>
-      <c r="I96" s="2" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="2" t="inlineStr">
+      <c r="D120" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="inlineStr"/>
+      <c r="F120" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G120" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H120" s="2" t="inlineStr"/>
+      <c r="I120" s="2" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="inlineStr">
         <is>
           <t>warnings.message</t>
         </is>
       </c>
-      <c r="B97" s="2" t="inlineStr">
+      <c r="B121" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">The description of the warning.
 The message will depend on the warning code:
@@ -34418,7 +35274,7 @@
 </t>
         </is>
       </c>
-      <c r="C97" s="2" t="inlineStr">
+      <c r="C121" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">The daily limit for XML downloads set by SAT was reached so this invoice
 might be missing data. Please check https://tinyurl.com/yydzhy5d for more
@@ -34426,90 +35282,90 @@
 </t>
         </is>
       </c>
-      <c r="D97" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E97" s="2" t="inlineStr"/>
-      <c r="F97" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G97" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H97" s="2" t="inlineStr"/>
-      <c r="I97" s="2" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="2" t="inlineStr">
+      <c r="D121" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="inlineStr"/>
+      <c r="F121" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G121" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H121" s="2" t="inlineStr"/>
+      <c r="I121" s="2" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="inlineStr">
         <is>
           <t>sender_blacklist_status</t>
         </is>
       </c>
-      <c r="B98" s="2" t="inlineStr">
+      <c r="B122" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">*This field has been deprecated. For more information regarding Belvo and deprecation, see our Deprecated fields explanation.*
 Please use `sender_tax_fraud_status` instead.
 </t>
         </is>
       </c>
-      <c r="C98" s="2" t="inlineStr"/>
-      <c r="D98" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E98" s="2" t="inlineStr"/>
-      <c r="F98" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G98" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H98" s="2" t="inlineStr"/>
-      <c r="I98" s="2" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="2" t="inlineStr">
+      <c r="C122" s="2" t="inlineStr"/>
+      <c r="D122" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="inlineStr"/>
+      <c r="F122" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G122" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H122" s="2" t="inlineStr"/>
+      <c r="I122" s="2" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="inlineStr">
         <is>
           <t>receiver_blacklist_status</t>
         </is>
       </c>
-      <c r="B99" s="2" t="inlineStr">
+      <c r="B123" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">*This field has been deprecated. For more information regarding Belvo and deprecation, see our Deprecated fields explanation.*
 Please use `receiver_tax_fraud_status` instead.
 </t>
         </is>
       </c>
-      <c r="C99" s="2" t="inlineStr"/>
-      <c r="D99" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E99" s="2" t="inlineStr"/>
-      <c r="F99" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G99" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H99" s="2" t="inlineStr"/>
-      <c r="I99" s="2" t="inlineStr"/>
+      <c r="C123" s="2" t="inlineStr"/>
+      <c r="D123" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="inlineStr"/>
+      <c r="F123" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G123" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H123" s="2" t="inlineStr"/>
+      <c r="I123" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -48288,9 +49144,7 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">The name of the institution, as designated by Belvo.
-Please see our &lt;a href="https://developers.belvo.com/docs/institution" target="_blank"&gt;Institutions&lt;/a&gt; DevPortal article for a detailed list of institution names.
-</t>
+          <t>The name of the institution, as designated by Belvo.</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
@@ -54016,9 +54870,7 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">The name of the institution, as designated by Belvo.
-Please see our &lt;a href="https://developers.belvo.com/docs/institution" target="_blank"&gt;Institutions&lt;/a&gt; DevPortal article for a detailed list of institution names.
-</t>
+          <t>The name of the institution, as designated by Belvo.</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
@@ -61769,9 +62621,7 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">The name of the institution, as designated by Belvo.
-Please see our &lt;a href="https://developers.belvo.com/docs/institution" target="_blank"&gt;Institutions&lt;/a&gt; DevPortal article for a detailed list of institution names.
-</t>
+          <t>The name of the institution, as designated by Belvo.</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">

--- a/data_dictionaries/en/Belvo_Data_Dictionary_en.xlsx
+++ b/data_dictionaries/en/Belvo_Data_Dictionary_en.xlsx
@@ -30620,7 +30620,7 @@
           <t xml:space="preserve">Indicates whether or not to store credentials (and the duration for which to store the credentials).
 - For recurrent links, this is set to `store` by default (and cannot be changed). 
 - For single links, this is set to `365d` by default.
-Choose either:
+Can be either:
   - `store` to store credentials (until the link is deleted)
   - `nostore` to not store credentials
   -  Any value between `1d` and `365d` to indicate the number of days you want the credentials to be stored.

--- a/data_dictionaries/en/Belvo_Data_Dictionary_en.xlsx
+++ b/data_dictionaries/en/Belvo_Data_Dictionary_en.xlsx
@@ -27089,7 +27089,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:I88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27499,7 +27499,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>48572</t>
+          <t>48572.01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -27538,7 +27538,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>21345</t>
+          <t>21345.01</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -27577,7 +27577,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>154321</t>
+          <t>154321.01</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -27616,7 +27616,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>31789</t>
+          <t>31789.01</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -27655,7 +27655,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>12345</t>
+          <t>12345.01</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -27694,7 +27694,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -27733,7 +27733,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>8976</t>
+          <t>8976.01</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -27772,7 +27772,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>65432</t>
+          <t>65432.01</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -27811,7 +27811,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>14321</t>
+          <t>14321.01</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -27850,7 +27850,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>54321</t>
+          <t>54321.01</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -27889,7 +27889,7 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>372480</t>
+          <t>372480.01</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
@@ -27959,7 +27959,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1123456</t>
+          <t>1123456.01</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -27988,17 +27988,17 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>balance_sheet.non_current_assets.long_term_accounts_receivable</t>
+          <t>balance_sheet.non_current_assets.accumulated_depreciation_and_amortization</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>The amount owed by customers for sales made on credit, expected to be received after one year.</t>
+          <t>Total accumulated depreciation and amortization, representing the cumulative allocation of the cost of non-current assets over the period they are expected to provide economic benefits.</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>10987</t>
+          <t>123456.01</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
@@ -28027,17 +28027,17 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>balance_sheet.non_current_assets.prepayment_to_suppliers</t>
+          <t>balance_sheet.non_current_assets.long_term_accounts_receivable</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>The amount paid in advance to suppliers for goods or services to be received in the future, expected to be utilized over the long term.</t>
+          <t>The amount owed by customers for sales made on credit, expected to be received after one year.</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>5432</t>
+          <t>10987.01</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
@@ -28066,17 +28066,17 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>balance_sheet.non_current_assets.goodwill</t>
+          <t>balance_sheet.non_current_assets.prepayment_to_suppliers</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>The value of intangible assets that arise from the acquisition of other companies, representing the premium paid over the fair value of net assets acquired.</t>
+          <t>The amount paid in advance to suppliers for goods or services to be received in the future, expected to be utilized over the long term.</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>47654</t>
+          <t>5432.01</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
@@ -28105,17 +28105,17 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>balance_sheet.non_current_assets.intangible_assets</t>
+          <t>balance_sheet.non_current_assets.goodwill</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>The total value of intangible assets owned by the company, such as patents, trademarks, and copyrights, with useful lives extending beyond one year.</t>
+          <t>The value of intangible assets that arise from the acquisition of other companies, representing the premium paid over the fair value of net assets acquired.</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>43210</t>
+          <t>47654.01</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
@@ -28144,17 +28144,17 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>balance_sheet.non_current_assets.investments_in_associates</t>
+          <t>balance_sheet.non_current_assets.intangible_assets</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>The value of investments in other companies in which the company has significant influence but not control, typically represented by ownership of 20-50% of the associate's voting shares.</t>
+          <t>The total value of intangible assets owned by the company, such as patents, trademarks, and copyrights, with useful lives extending beyond one year.</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>65432</t>
+          <t>43210.01</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
@@ -28183,17 +28183,17 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>balance_sheet.non_current_assets.long_term_financial_instruments</t>
+          <t>balance_sheet.non_current_assets.investments_in_associates</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>The value of financial instruments that are expected to be held for more than one year, such as bonds, debentures, and long-term loans.</t>
+          <t>The value of investments in other companies in which the company has significant influence but not control, typically represented by ownership of 20-50% of the associate's voting shares.</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>32876</t>
+          <t>65432.01</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
@@ -28222,17 +28222,17 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>balance_sheet.non_current_assets.total</t>
+          <t>balance_sheet.non_current_assets.long_term_financial_instruments</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>The sum of all non-current assets, representing the total value of assets expected to be used or held for more than one year.</t>
+          <t>The value of financial instruments that are expected to be held for more than one year, such as bonds, debentures, and long-term loans.</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>1346647</t>
+          <t>32876.01</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
@@ -28261,29 +28261,37 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>balance_sheet.current_liabilities</t>
+          <t>balance_sheet.non_current_assets.total</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>The current liabilities of the company, expected to be settled within the given year.</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr"/>
+          <t>The sum of all non-current assets, representing the total value of assets expected to be used or held for more than one year.</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>1346647.01</t>
+        </is>
+      </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>object</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr"/>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr"/>
@@ -28292,37 +28300,29 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>balance_sheet.current_liabilities.bank_loans</t>
+          <t>balance_sheet.current_liabilities</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>The total amount of loans borrowed from banks or financial institutions, expected to be repaid within one year.</t>
-        </is>
-      </c>
-      <c r="C32" s="2" t="inlineStr">
-        <is>
-          <t>49876</t>
-        </is>
-      </c>
+          <t>The current liabilities of the company, expected to be settled within the given year.</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr"/>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="E32" s="2" t="inlineStr">
-        <is>
-          <t>float</t>
-        </is>
-      </c>
+          <t>object</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr"/>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr"/>
@@ -28331,17 +28331,17 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>balance_sheet.current_liabilities.accounts_payable</t>
+          <t>balance_sheet.current_liabilities.bank_loans</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>The amount owed to suppliers for goods or services purchased on credit, expected to be paid within a short period.</t>
+          <t>The total amount of loans borrowed from banks or financial institutions, expected to be repaid within one year.</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>103298</t>
+          <t>49876.01</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
@@ -28370,17 +28370,17 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>balance_sheet.current_liabilities.notes_payable</t>
+          <t>balance_sheet.current_liabilities.accounts_payable</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>The value of written promissory notes issued to suppliers or others, promising to pay a specified amount by a certain date.</t>
+          <t>The amount owed to suppliers for goods or services purchased on credit, expected to be paid within a short period.</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>25643</t>
+          <t>103298.01</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
@@ -28409,17 +28409,17 @@
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>balance_sheet.current_liabilities.financial_instruments</t>
+          <t>balance_sheet.current_liabilities.notes_payable</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>The value of financial instruments that are expected to be liquidated into cash within one year, such as bonds, debentures, and short-term loans.</t>
+          <t>The value of written promissory notes issued to suppliers or others, promising to pay a specified amount by a certain date.</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>14321</t>
+          <t>25643.01</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
@@ -28448,17 +28448,17 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>balance_sheet.current_liabilities.other_creditors</t>
+          <t>balance_sheet.current_liabilities.financial_instruments</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>The total amounts due to various other creditors, excluding accounts and notes payable.</t>
+          <t>The value of financial instruments that are expected to be liquidated into cash within one year, such as bonds, debentures, and short-term loans.</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>21987</t>
+          <t>14321.01</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
@@ -28487,17 +28487,17 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>balance_sheet.current_liabilities.income_tax_payable</t>
+          <t>balance_sheet.current_liabilities.other_creditors</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>The amount of income tax that is owed to tax authorities, expected to be paid within a short period.</t>
+          <t>The total amounts due to various other creditors, excluding accounts and notes payable.</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>12765</t>
+          <t>21987.01</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
@@ -28526,17 +28526,17 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>balance_sheet.current_liabilities.customer_advances</t>
+          <t>balance_sheet.current_liabilities.income_tax_payable</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>The total amount received in advance from customers for goods or services to be delivered in the future, expected to be utilized within one year.</t>
+          <t>The amount of income tax that is owed to tax authorities, expected to be paid within a short period.</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>18765</t>
+          <t>12765.01</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
@@ -28565,17 +28565,17 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>balance_sheet.current_liabilities.provisions</t>
+          <t>balance_sheet.current_liabilities.customer_advances</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>The estimated amount set aside for future liabilities or losses, such as warranties, legal claims, or restructuring costs.</t>
+          <t>The total amount received in advance from customers for goods or services to be delivered in the future, expected to be utilized within one year.</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>10987</t>
+          <t>18765.01</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
@@ -28604,17 +28604,17 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>balance_sheet.current_liabilities.taxes_payable</t>
+          <t>balance_sheet.current_liabilities.provisions</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>The total amount of taxes owed to tax authorities, expected to be paid within a short period.</t>
+          <t>The estimated amount set aside for future liabilities or losses, such as warranties, legal claims, or restructuring costs.</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>5321</t>
+          <t>10987.01</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
@@ -28643,17 +28643,17 @@
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>balance_sheet.current_liabilities.total</t>
+          <t>balance_sheet.current_liabilities.taxes_payable</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>The sum of all current liabilities, representing the total value of obligations expected to be settled within one year.</t>
+          <t>The total amount of taxes owed to tax authorities, expected to be paid within a short period.</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>260963</t>
+          <t>5321.01</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
@@ -28682,29 +28682,37 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>balance_sheet.non_current_liabilities</t>
+          <t>balance_sheet.current_liabilities.total</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>The non-current liabilities of the company, which are long-term obligations not due within the given year.</t>
-        </is>
-      </c>
-      <c r="C42" s="2" t="inlineStr"/>
+          <t>The sum of all current liabilities, representing the total value of obligations expected to be settled within one year.</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>260963.01</t>
+        </is>
+      </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>object</t>
-        </is>
-      </c>
-      <c r="E42" s="2" t="inlineStr"/>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr"/>
@@ -28713,37 +28721,29 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>balance_sheet.non_current_liabilities.long_term_accounts_payable</t>
+          <t>balance_sheet.non_current_liabilities</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>The amount owed to suppliers for goods or services purchased on credit, expected to be paid after one year.</t>
-        </is>
-      </c>
-      <c r="C43" s="2" t="inlineStr">
-        <is>
-          <t>30876</t>
-        </is>
-      </c>
+          <t>The non-current liabilities of the company, which are long-term obligations not due within the given year.</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr"/>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="E43" s="2" t="inlineStr">
-        <is>
-          <t>float</t>
-        </is>
-      </c>
+          <t>object</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr"/>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr"/>
@@ -28752,17 +28752,17 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>balance_sheet.non_current_liabilities.long_term_financial_instruments</t>
+          <t>balance_sheet.non_current_liabilities.long_term_accounts_payable</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>The value of financial instruments that are expected to be held for more than one year, such as bonds, debentures, and long-term loans.</t>
+          <t>The amount owed to suppliers for goods or services purchased on credit, expected to be paid after one year.</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>42310</t>
+          <t>30876.01</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
@@ -28791,17 +28791,17 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>balance_sheet.non_current_liabilities.deferred_revenue</t>
+          <t>balance_sheet.non_current_liabilities.long_term_financial_instruments</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>The amount received in advance from customers for goods or services to be delivered in the future, expected to be recognized as revenue over the long term (such as rent).</t>
+          <t>The value of financial instruments that are expected to be held for more than one year, such as bonds, debentures, and long-term loans.</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>21987</t>
+          <t>42310.01</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
@@ -28830,17 +28830,17 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>balance_sheet.non_current_liabilities.contributions_for_future_capital_increases</t>
+          <t>balance_sheet.non_current_liabilities.deferred_revenue</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>The total contributions received from shareholders or other investors for future capital increases, expected to be utilized over the long term.</t>
+          <t>The amount received in advance from customers for goods or services to be delivered in the future, expected to be recognized as revenue over the long term (such as rent).</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>10987</t>
+          <t>21987.01</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
@@ -28869,17 +28869,17 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>balance_sheet.non_current_liabilities.deferred_income_tax</t>
+          <t>balance_sheet.non_current_liabilities.contributions_for_future_capital_increases</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>The amount of income tax that is deferred to future periods, expected to be paid after one year.</t>
+          <t>The total contributions received from shareholders or other investors for future capital increases, expected to be utilized over the long term.</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>26543</t>
+          <t>10987.01</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr">
@@ -28908,17 +28908,17 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>balance_sheet.non_current_liabilities.employee_benefits</t>
+          <t>balance_sheet.non_current_liabilities.deferred_income_tax</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>The total amount of benefits owed to employees, such as pensions, gratuities, and other post-employment benefits, expected to be settled over the long term.</t>
+          <t>The amount of income tax that is deferred to future periods, expected to be paid after one year.</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>30218</t>
+          <t>26543.01</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
@@ -28947,17 +28947,17 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>balance_sheet.non_current_liabilities.long_term_provisions</t>
+          <t>balance_sheet.non_current_liabilities.employee_benefits</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>The estimated amount set aside for future liabilities or losses, such as warranties, legal claims, or restructuring costs, expected to be settled after one year.</t>
+          <t>The total amount of benefits owed to employees, such as pensions, gratuities, and other post-employment benefits, expected to be settled over the long term.</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>15432</t>
+          <t>30218.01</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr">
@@ -28986,17 +28986,17 @@
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>balance_sheet.non_current_liabilities.total</t>
+          <t>balance_sheet.non_current_liabilities.long_term_provisions</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>The sum of all non-current liabilities, representing the total value of obligations expected to be settled after one year.</t>
+          <t>The estimated amount set aside for future liabilities or losses, such as warranties, legal claims, or restructuring costs, expected to be settled after one year.</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>178353</t>
+          <t>15432.01</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr">
@@ -29025,29 +29025,37 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>balance_sheet.equity</t>
+          <t>balance_sheet.non_current_liabilities.total</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>The equity of the company, representing the residual interest in the assets after deducting liabilities.</t>
-        </is>
-      </c>
-      <c r="C51" s="2" t="inlineStr"/>
+          <t>The sum of all non-current liabilities, representing the total value of obligations expected to be settled after one year.</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>178353.01</t>
+        </is>
+      </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>object</t>
-        </is>
-      </c>
-      <c r="E51" s="2" t="inlineStr"/>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H51" s="2" t="inlineStr"/>
@@ -29056,37 +29064,29 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>balance_sheet.equity.stockholders_equity</t>
+          <t>balance_sheet.equity</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>The total value of shares issued by the company, representing the ownership interest of shareholders in the business.</t>
-        </is>
-      </c>
-      <c r="C52" s="2" t="inlineStr">
-        <is>
-          <t>501234</t>
-        </is>
-      </c>
+          <t>The equity of the company, representing the residual interest in the assets after deducting liabilities.</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr"/>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="E52" s="2" t="inlineStr">
-        <is>
-          <t>float</t>
-        </is>
-      </c>
+          <t>object</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr"/>
       <c r="F52" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="H52" s="2" t="inlineStr"/>
@@ -29095,17 +29095,17 @@
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>balance_sheet.equity.retained_earnings</t>
+          <t>balance_sheet.equity.stockholders_equity</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>The accumulated profits or losses of the company that have not been distributed to shareholders as dividends.</t>
+          <t>The total value of shares issued by the company, representing the ownership interest of shareholders in the business.</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>202345</t>
+          <t>501234.01</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr">
@@ -29134,17 +29134,17 @@
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>balance_sheet.equity.other_comprehensive_income</t>
+          <t>balance_sheet.equity.future_capital_contributions</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>The gains or losses that are not included in net income but are reported directly in equity, such as unrealized gains on investments or foreign currency translation adjustments.</t>
+          <t>The funds received from shareholders that are specifically designated for future capital increases or investments.</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>10987</t>
+          <t>75000.01</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr">
@@ -29173,17 +29173,17 @@
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>balance_sheet.equity.controlling_interest</t>
+          <t>balance_sheet.equity.legal_reserve</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>The ownership interest in the company held by the parent entity or majority shareholders, representing the controlling stake in the business.</t>
+          <t>The statutory reserve mandated by law, typically set aside from profits, to provide financial protection against future losses or obligations.</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>70876</t>
+          <t>25000.01</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr">
@@ -29212,17 +29212,17 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>balance_sheet.equity.non_controlling_interest</t>
+          <t>balance_sheet.equity.capital_update_excess</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>The ownership interest in the company held by minority shareholders, representing the non-controlling stake in the business.</t>
+          <t>The surplus resulting from adjustments made to equity capital, often due to inflation or the revaluation of assets.</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>50321</t>
+          <t>15000.01</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr">
@@ -29251,17 +29251,17 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>balance_sheet.equity.total</t>
+          <t>balance_sheet.equity.capital_update_insufficiency</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>The sum of share capital, retained earnings, other comprehensive income, controlling interest, and non-controlling interest, representing the total equity of the company.</t>
+          <t>The deficit resulting from adjustments made to equity capital, often due to inflation or the revaluation of assets.</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>836763</t>
+          <t>-5000.01</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr">
@@ -29290,21 +29290,29 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>income_statement</t>
+          <t>balance_sheet.equity.capital_reserve</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>The income statement detailing the company's revenues, expenses, and profits for the given year.</t>
-        </is>
-      </c>
-      <c r="C58" s="2" t="inlineStr"/>
+          <t>The equity reserve derived from non-operating activities, such as gains from asset revaluations or certain capital transactions.</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>10000.01</t>
+        </is>
+      </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>object</t>
-        </is>
-      </c>
-      <c r="E58" s="2" t="inlineStr"/>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
       <c r="F58" s="2" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -29312,7 +29320,7 @@
       </c>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H58" s="2" t="inlineStr"/>
@@ -29321,290 +29329,286 @@
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
+          <t>balance_sheet.equity.share_premium_on_stock_sales</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="inlineStr">
+        <is>
+          <t>The excess amount received by a company when shares are issued at a price above their nominal (par) value.</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>50000.01</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr"/>
+      <c r="I59" s="2" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>balance_sheet.equity.retained_earnings</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>The accumulated profits or losses of the company that have not been distributed to shareholders as dividends.</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="inlineStr">
+        <is>
+          <t>202345.01</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="F60" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G60" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H60" s="2" t="inlineStr"/>
+      <c r="I60" s="2" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="inlineStr">
+        <is>
+          <t>balance_sheet.equity.other_comprehensive_income</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="inlineStr">
+        <is>
+          <t>The gains or losses that are not included in net income but are reported directly in equity, such as unrealized gains on investments or foreign currency translation adjustments.</t>
+        </is>
+      </c>
+      <c r="C61" s="2" t="inlineStr">
+        <is>
+          <t>10987.01</t>
+        </is>
+      </c>
+      <c r="D61" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="F61" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G61" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H61" s="2" t="inlineStr"/>
+      <c r="I61" s="2" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>balance_sheet.equity.controlling_interest</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>The ownership interest in the company held by the parent entity or majority shareholders, representing the controlling stake in the business.</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="inlineStr">
+        <is>
+          <t>70876.01</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="F62" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G62" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H62" s="2" t="inlineStr"/>
+      <c r="I62" s="2" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="inlineStr">
+        <is>
+          <t>balance_sheet.equity.non_controlling_interest</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="inlineStr">
+        <is>
+          <t>The ownership interest in the company held by minority shareholders, representing the non-controlling stake in the business.</t>
+        </is>
+      </c>
+      <c r="C63" s="2" t="inlineStr">
+        <is>
+          <t>50321.01</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="F63" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G63" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H63" s="2" t="inlineStr"/>
+      <c r="I63" s="2" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>balance_sheet.equity.total</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>The sum of share capital, retained earnings, other comprehensive income, controlling interest, and non-controlling interest, representing the total equity of the company.</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="inlineStr">
+        <is>
+          <t>836763.01</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="F64" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G64" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H64" s="2" t="inlineStr"/>
+      <c r="I64" s="2" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="inlineStr">
+        <is>
+          <t>income_statement</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="inlineStr">
+        <is>
+          <t>The income statement detailing the company's revenues, expenses, and profits for the given year.</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="inlineStr"/>
+      <c r="D65" s="2" t="inlineStr">
+        <is>
+          <t>object</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="inlineStr"/>
+      <c r="F65" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G65" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H65" s="2" t="inlineStr"/>
+      <c r="I65" s="2" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="inlineStr">
+        <is>
           <t>income_statement.net_revenue</t>
         </is>
       </c>
-      <c r="B59" s="2" t="inlineStr">
+      <c r="B66" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">The total revenue generated by the company from its core business operations, excluding any deductions for discounts, returns, or allowances.
 &gt; **Note**: `domestic_sales` +  `foreign_sales` will not sum to the `net_revenue` due to the exclusion of discounts, returns, and allowances.
 </t>
         </is>
       </c>
-      <c r="C59" s="2" t="inlineStr">
-        <is>
-          <t>1212345</t>
-        </is>
-      </c>
-      <c r="D59" s="2" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="E59" s="2" t="inlineStr">
-        <is>
-          <t>float</t>
-        </is>
-      </c>
-      <c r="F59" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G59" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H59" s="2" t="inlineStr"/>
-      <c r="I59" s="2" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="inlineStr">
-        <is>
-          <t>income_statement.domestic_sales</t>
-        </is>
-      </c>
-      <c r="B60" s="2" t="inlineStr">
-        <is>
-          <t>The revenue generated by the company from sales of goods or services within its home country.</t>
-        </is>
-      </c>
-      <c r="C60" s="2" t="inlineStr">
-        <is>
-          <t>1123456</t>
-        </is>
-      </c>
-      <c r="D60" s="2" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="E60" s="2" t="inlineStr">
-        <is>
-          <t>float</t>
-        </is>
-      </c>
-      <c r="F60" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G60" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H60" s="2" t="inlineStr"/>
-      <c r="I60" s="2" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="inlineStr">
-        <is>
-          <t>income_statement.foreign_sales</t>
-        </is>
-      </c>
-      <c r="B61" s="2" t="inlineStr">
-        <is>
-          <t>The revenue generated by the company from sales of goods or services in foreign countries.</t>
-        </is>
-      </c>
-      <c r="C61" s="2" t="inlineStr">
-        <is>
-          <t>88987</t>
-        </is>
-      </c>
-      <c r="D61" s="2" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="E61" s="2" t="inlineStr">
-        <is>
-          <t>float</t>
-        </is>
-      </c>
-      <c r="F61" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G61" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H61" s="2" t="inlineStr"/>
-      <c r="I61" s="2" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="inlineStr">
-        <is>
-          <t>income_statement.materials_used</t>
-        </is>
-      </c>
-      <c r="B62" s="2" t="inlineStr">
-        <is>
-          <t>The total cost of materials used or traded by the company during the reporting period.</t>
-        </is>
-      </c>
-      <c r="C62" s="2" t="inlineStr">
-        <is>
-          <t>609876</t>
-        </is>
-      </c>
-      <c r="D62" s="2" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="E62" s="2" t="inlineStr">
-        <is>
-          <t>float</t>
-        </is>
-      </c>
-      <c r="F62" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G62" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H62" s="2" t="inlineStr"/>
-      <c r="I62" s="2" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="inlineStr">
-        <is>
-          <t>income_statement.cost_of_goods_sold</t>
-        </is>
-      </c>
-      <c r="B63" s="2" t="inlineStr">
-        <is>
-          <t>The total cost incurred by the company to produce or purchase the goods sold during the reporting period.</t>
-        </is>
-      </c>
-      <c r="C63" s="2" t="inlineStr">
-        <is>
-          <t>412345</t>
-        </is>
-      </c>
-      <c r="D63" s="2" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="E63" s="2" t="inlineStr">
-        <is>
-          <t>float</t>
-        </is>
-      </c>
-      <c r="F63" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G63" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H63" s="2" t="inlineStr"/>
-      <c r="I63" s="2" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="inlineStr">
-        <is>
-          <t>income_statement.cost_of_services_sold</t>
-        </is>
-      </c>
-      <c r="B64" s="2" t="inlineStr">
-        <is>
-          <t>The total cost incurred by the company to provide the services sold during the reporting period.</t>
-        </is>
-      </c>
-      <c r="C64" s="2" t="inlineStr">
-        <is>
-          <t>101234</t>
-        </is>
-      </c>
-      <c r="D64" s="2" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="E64" s="2" t="inlineStr">
-        <is>
-          <t>float</t>
-        </is>
-      </c>
-      <c r="F64" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G64" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H64" s="2" t="inlineStr"/>
-      <c r="I64" s="2" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="inlineStr">
-        <is>
-          <t>income_statement.gross_profit</t>
-        </is>
-      </c>
-      <c r="B65" s="2" t="inlineStr">
-        <is>
-          <t>The difference between net revenue and the total cost of goods and services sold, representing the profit earned from core business operations before deducting operating expenses.</t>
-        </is>
-      </c>
-      <c r="C65" s="2" t="inlineStr">
-        <is>
-          <t>190890</t>
-        </is>
-      </c>
-      <c r="D65" s="2" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="E65" s="2" t="inlineStr">
-        <is>
-          <t>float</t>
-        </is>
-      </c>
-      <c r="F65" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G65" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H65" s="2" t="inlineStr"/>
-      <c r="I65" s="2" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="inlineStr">
-        <is>
-          <t>income_statement.gross_loss</t>
-        </is>
-      </c>
-      <c r="B66" s="2" t="inlineStr">
-        <is>
-          <t>The negative difference between net revenue and the total cost of goods and services sold, representing the loss incurred from core business operations before deducting operating expenses.</t>
-        </is>
-      </c>
-      <c r="C66" s="2" t="inlineStr"/>
+      <c r="C66" s="2" t="inlineStr">
+        <is>
+          <t>1212345.01</t>
+        </is>
+      </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
           <t>number</t>
@@ -29631,17 +29635,17 @@
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>income_statement.operating_expenses</t>
+          <t>income_statement.domestic_sales</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>The total expenses incurred by the company in its normal operating activities, including selling, general, and administrative expenses.</t>
+          <t>The revenue generated by the company from sales of goods or services within its home country.</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>122345</t>
+          <t>1123456.01</t>
         </is>
       </c>
       <c r="D67" s="2" t="inlineStr">
@@ -29670,17 +29674,17 @@
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>income_statement.operating_income</t>
+          <t>income_statement.foreign_sales</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>The profit earned from core business operations after deducting operating expenses, but before considering interest, taxes, and other non-operating items.</t>
+          <t>The revenue generated by the company from sales of goods or services in foreign countries.</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>68545</t>
+          <t>88987.01</t>
         </is>
       </c>
       <c r="D68" s="2" t="inlineStr">
@@ -29709,15 +29713,19 @@
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>income_statement.operating_loss</t>
+          <t>income_statement.materials_used</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>The loss incurred from core business operations after deducting operating expenses, but before considering interest, taxes, and other non-operating items.</t>
-        </is>
-      </c>
-      <c r="C69" s="2" t="inlineStr"/>
+          <t>The total cost of materials used or traded by the company during the reporting period.</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="inlineStr">
+        <is>
+          <t>609876.01</t>
+        </is>
+      </c>
       <c r="D69" s="2" t="inlineStr">
         <is>
           <t>number</t>
@@ -29744,17 +29752,17 @@
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>income_statement.financial_result</t>
+          <t>income_statement.cost_of_goods_sold</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>The net result of financial activities, including interest income, interest expense, and other financial gains or losses.</t>
+          <t>The total cost incurred by the company to produce or purchase the goods sold during the reporting period.</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>15098</t>
+          <t>412345.01</t>
         </is>
       </c>
       <c r="D70" s="2" t="inlineStr">
@@ -29783,17 +29791,17 @@
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>income_statement.equity_in_earnings_of_affiliates</t>
+          <t>income_statement.cost_of_services_sold</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>The company's share of the profit or loss in its associates, entities over which it has significant influence but not control.</t>
+          <t>The total cost incurred by the company to provide the services sold during the reporting period.</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>5678</t>
+          <t>101234.01</t>
         </is>
       </c>
       <c r="D71" s="2" t="inlineStr">
@@ -29822,17 +29830,17 @@
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>income_statement.income_before_taxes</t>
+          <t>income_statement.gross_profit</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>The profit earned before accounting for income tax expenses.</t>
+          <t>The difference between net revenue and the total cost of goods and services sold, representing the profit earned from core business operations before deducting operating expenses.</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>89321</t>
+          <t>190890.01</t>
         </is>
       </c>
       <c r="D72" s="2" t="inlineStr">
@@ -29861,12 +29869,12 @@
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>income_statement.loss_before_taxes</t>
+          <t>income_statement.gross_loss</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>The loss incurred before accounting for income tax expenses.</t>
+          <t>The negative difference between net revenue and the total cost of goods and services sold, representing the loss incurred from core business operations before deducting operating expenses.</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr"/>
@@ -29896,17 +29904,17 @@
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>income_statement.income_taxes</t>
+          <t>income_statement.operating_expenses</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>The total amount of income tax expenses incurred during the reporting period.</t>
+          <t>The total expenses incurred by the company in its normal operating activities, including selling, general, and administrative expenses.</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>20123</t>
+          <t>122345.01</t>
         </is>
       </c>
       <c r="D74" s="2" t="inlineStr">
@@ -29935,17 +29943,17 @@
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>income_statement.income_from_continuing_operations</t>
+          <t>income_statement.operating_income</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>The profit earned from the company's ongoing business operations after deducting operating expenses and taxes.</t>
+          <t>The profit earned from core business operations after deducting operating expenses, but before considering interest, taxes, and other non-operating items.</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>69198</t>
+          <t>68545.01</t>
         </is>
       </c>
       <c r="D75" s="2" t="inlineStr">
@@ -29974,12 +29982,12 @@
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>income_statement.loss_from_continuing_operations</t>
+          <t>income_statement.operating_loss</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>The loss incurred from the company's ongoing business operations after deducting operating expenses and taxes.</t>
+          <t>The loss incurred from core business operations after deducting operating expenses, but before considering interest, taxes, and other non-operating items.</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr"/>
@@ -30009,17 +30017,17 @@
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>income_statement.discontinued_operations</t>
+          <t>income_statement.financial_result</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>The net result of operations that have been discontinued or sold off during the reporting period.</t>
+          <t>The net result of financial activities, including interest income, interest expense, and other financial gains or losses.</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15098.01</t>
         </is>
       </c>
       <c r="D77" s="2" t="inlineStr">
@@ -30048,17 +30056,17 @@
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>income_statement.net_income</t>
+          <t>income_statement.income_statement_financial_gains</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>The total profit earned by the company after deducting all expenses, including operating, non-operating, interest, and taxes.</t>
+          <t>The total positive financial income, including interest income, foreign exchange gains, and other gains from financing activities. This value must always be positive.</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>69198</t>
+          <t>85000.01</t>
         </is>
       </c>
       <c r="D78" s="2" t="inlineStr">
@@ -30087,15 +30095,19 @@
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>income_statement.net_loss</t>
+          <t>income_statement.income_statement_financial_costs</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>The total loss incurred by the company after deducting all expenses, including operating, non-operating, interest, and taxes.</t>
-        </is>
-      </c>
-      <c r="C79" s="2" t="inlineStr"/>
+          <t>The total financial expenses, including interest expenses, foreign exchange losses, and other costs incurred from financing activities. This value must always be negative.</t>
+        </is>
+      </c>
+      <c r="C79" s="2" t="inlineStr">
+        <is>
+          <t>-32000.01</t>
+        </is>
+      </c>
       <c r="D79" s="2" t="inlineStr">
         <is>
           <t>number</t>
@@ -30118,6 +30130,345 @@
       </c>
       <c r="H79" s="2" t="inlineStr"/>
       <c r="I79" s="2" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>income_statement.equity_in_earnings_of_affiliates</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>The company's share of the profit or loss in its associates, entities over which it has significant influence but not control.</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="inlineStr">
+        <is>
+          <t>5678.01</t>
+        </is>
+      </c>
+      <c r="D80" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="F80" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G80" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H80" s="2" t="inlineStr"/>
+      <c r="I80" s="2" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="inlineStr">
+        <is>
+          <t>income_statement.income_before_taxes</t>
+        </is>
+      </c>
+      <c r="B81" s="2" t="inlineStr">
+        <is>
+          <t>The profit earned before accounting for income tax expenses.</t>
+        </is>
+      </c>
+      <c r="C81" s="2" t="inlineStr">
+        <is>
+          <t>89321.01</t>
+        </is>
+      </c>
+      <c r="D81" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="F81" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G81" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H81" s="2" t="inlineStr"/>
+      <c r="I81" s="2" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>income_statement.loss_before_taxes</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="inlineStr">
+        <is>
+          <t>The loss incurred before accounting for income tax expenses.</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="inlineStr"/>
+      <c r="D82" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="F82" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G82" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H82" s="2" t="inlineStr"/>
+      <c r="I82" s="2" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="inlineStr">
+        <is>
+          <t>income_statement.income_taxes</t>
+        </is>
+      </c>
+      <c r="B83" s="2" t="inlineStr">
+        <is>
+          <t>The total amount of income tax expenses incurred during the reporting period.</t>
+        </is>
+      </c>
+      <c r="C83" s="2" t="inlineStr">
+        <is>
+          <t>20123.01</t>
+        </is>
+      </c>
+      <c r="D83" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="F83" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G83" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H83" s="2" t="inlineStr"/>
+      <c r="I83" s="2" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="inlineStr">
+        <is>
+          <t>income_statement.income_from_continuing_operations</t>
+        </is>
+      </c>
+      <c r="B84" s="2" t="inlineStr">
+        <is>
+          <t>The profit earned from the company's ongoing business operations after deducting operating expenses and taxes.</t>
+        </is>
+      </c>
+      <c r="C84" s="2" t="inlineStr">
+        <is>
+          <t>69198.01</t>
+        </is>
+      </c>
+      <c r="D84" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="F84" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G84" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H84" s="2" t="inlineStr"/>
+      <c r="I84" s="2" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="inlineStr">
+        <is>
+          <t>income_statement.loss_from_continuing_operations</t>
+        </is>
+      </c>
+      <c r="B85" s="2" t="inlineStr">
+        <is>
+          <t>The loss incurred from the company's ongoing business operations after deducting operating expenses and taxes.</t>
+        </is>
+      </c>
+      <c r="C85" s="2" t="inlineStr"/>
+      <c r="D85" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="F85" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G85" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H85" s="2" t="inlineStr"/>
+      <c r="I85" s="2" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t>income_statement.discontinued_operations</t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="inlineStr">
+        <is>
+          <t>The net result of operations that have been discontinued or sold off during the reporting period.</t>
+        </is>
+      </c>
+      <c r="C86" s="2" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="D86" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="F86" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G86" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H86" s="2" t="inlineStr"/>
+      <c r="I86" s="2" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="inlineStr">
+        <is>
+          <t>income_statement.net_income</t>
+        </is>
+      </c>
+      <c r="B87" s="2" t="inlineStr">
+        <is>
+          <t>The total profit earned by the company after deducting all expenses, including operating, non-operating, interest, and taxes.</t>
+        </is>
+      </c>
+      <c r="C87" s="2" t="inlineStr">
+        <is>
+          <t>69198.01</t>
+        </is>
+      </c>
+      <c r="D87" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="F87" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G87" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H87" s="2" t="inlineStr"/>
+      <c r="I87" s="2" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="inlineStr">
+        <is>
+          <t>income_statement.net_loss</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="inlineStr">
+        <is>
+          <t>The total loss incurred by the company after deducting all expenses, including operating, non-operating, interest, and taxes.</t>
+        </is>
+      </c>
+      <c r="C88" s="2" t="inlineStr"/>
+      <c r="D88" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="F88" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G88" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H88" s="2" t="inlineStr"/>
+      <c r="I88" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -30620,7 +30971,7 @@
           <t xml:space="preserve">Indicates whether or not to store credentials (and the duration for which to store the credentials).
 - For recurrent links, this is set to `store` by default (and cannot be changed). 
 - For single links, this is set to `365d` by default.
-Choose either:
+Can be either:
   - `store` to store credentials (until the link is deleted)
   - `nostore` to not store credentials
   -  Any value between `1d` and `365d` to indicate the number of days you want the credentials to be stored.

--- a/data_dictionaries/en/Belvo_Data_Dictionary_en.xlsx
+++ b/data_dictionaries/en/Belvo_Data_Dictionary_en.xlsx
@@ -11268,13 +11268,15 @@
 We return one of the following values:
   - `REGULAR`
   - `THIRTEENTH`
+  - `VOLUNTARY`
+  - `RETIREMENT`
   - `null`
 </t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>REGULAR</t>
+          <t>VOLUNTARY</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
@@ -11295,7 +11297,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>REGULAR, THIRTEENTH, None</t>
+          <t>REGULAR, THIRTEENTH, VOLUNTARY, RETIREMENT, None</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr"/>
